--- a/data/statistic_results/sentiment_雅德.xlsx
+++ b/data/statistic_results/sentiment_雅德.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E597"/>
+  <dimension ref="A1:E596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.9926116019719968</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.993436082751822</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.9242154821628783</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.9037900160055248</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="6">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.9848710971644128</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.9998697726984407</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.0187248091413128</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-0.8910939571407028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.9365061551428386</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-0.9984679849710625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.9433620007757544</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-0.3700667841204968</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.9996702007241198</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.9961384861807852</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-0.003003003003003046</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.9782043454459701</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.9793854754227531</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.9556914814748003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.6252833484910605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-0.8946346864444052</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.9998679852349046</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.2100725507382992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.7752747490959371</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.9760323181539829</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.757226071856872</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.5265773741913928</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.8833870596733486</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.5878831231060841</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.6898087229526255</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.8050294686715294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.3404418100104352</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.469998256172629</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="34">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.9320645693999847</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="35">
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.9966568189196257</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="36">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.6384656947925789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.8148361893715221</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.7228809316245828</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.8414601443313807</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.6950784983741629</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-0.207405865124165</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-0.8630284717178904</v>
+        <v>-0.4315142358589452</v>
       </c>
     </row>
     <row r="43">
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.6705282875454497</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.9135117399085602</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.7586576695016474</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.5990415790341275</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="47">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-0.9810848027779042</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.9249222372562822</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.9966013411177157</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.8330499043112569</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.5529594451850313</v>
+        <v>0.2764797225925156</v>
       </c>
     </row>
     <row r="52">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.9456349570591702</v>
+        <v>0.4728174785295851</v>
       </c>
     </row>
     <row r="53">
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.6800940814970071</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.8304228679155552</v>
+        <v>-0.1111111111111111</v>
       </c>
     </row>
     <row r="55">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.3654730955908503</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="56">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>-0.2529935804036627</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.8402706969400398</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>-0.4953198928382694</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="59">
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.2927395362456149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.9921415445442714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.9169102492556909</v>
+        <v>0.4584551246278454</v>
       </c>
     </row>
     <row r="62">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.1239861988279323</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>-0.7657247328619836</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.4743074463300938</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-0.1536907744851228</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.6457881413219468</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>-0.8947307041935497</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="68">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-0.9602960524211015</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="69">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.8965519514189342</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>-0.9996798842087908</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="71">
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-0.3829815559929455</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.9967891075081032</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.6028622376732091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-0.1334497422708092</v>
+        <v>-0.0667248711354046</v>
       </c>
     </row>
     <row r="75">
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.1806081604323919</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="76">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.9990309223186604</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.7438953668402384</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.9400041635272309</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.7906171909366042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-0.6038275937588387</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.9748134749702089</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>-0.1263700702544512</v>
+        <v>-0.06318503512722562</v>
       </c>
     </row>
     <row r="83">
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.9887850430893113</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.8823423527964431</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.4013474602782039</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.838281924811896</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.9996988023915814</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.9983616148371877</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="89">
@@ -2657,7 +2657,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.9673488591229913</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="90">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.6298576440274957</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.0111045643864045</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-0.3154426030635418</v>
+        <v>-0.1577213015317709</v>
       </c>
     </row>
     <row r="93">
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.1244245941961133</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>-0.5181534133049366</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="95">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.8447608114045184</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.3622181776633182</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>-0.2140747234836602</v>
+        <v>-0.1070373617418301</v>
       </c>
     </row>
     <row r="98">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.5961731052835371</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.928175511929507</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>-0.6684292059936712</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -2957,7 +2957,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.4724849094929722</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>-0.4342193620350778</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>-0.1717520285648282</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.4744062531925561</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.07801633884694703</v>
+        <v>0.03900816942347352</v>
       </c>
     </row>
     <row r="106">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.2745637495976248</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-0.7555130710773577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>-0.4768722339882825</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="109">
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>-0.1782903455334537</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="110">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-0.1566691215506393</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="111">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>-0.2718404056616506</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="112">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.5403214755691192</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="113">
@@ -3257,7 +3257,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-0.3642065732180431</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="114">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.9905777896766432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>-0.7815673992237497</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="116">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>-0.997821165370302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.6855876294659151</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="118">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.9564501452137122</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>-0.3571877166422117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.9520508521284132</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -3457,7 +3457,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.9998046302573724</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="122">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.9800633500623162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>-0.3425427692052558</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>-0.9189700121103528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -3557,7 +3557,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.9136523680332187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>-0.9300359302914969</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.8769588497215046</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-0.9446562532689091</v>
+        <v>-0.3333333333333333</v>
       </c>
     </row>
     <row r="129">
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.2160923461443929</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.8825424484462052</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.6995698595626698</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.5804730405669414</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -3757,7 +3757,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.9380113325932633</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.9503429294162684</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.3034205183605092</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.9555527672395123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -3857,7 +3857,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.7463320433015777</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.5404180469400384</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.5882290906867085</v>
+        <v>0.2941145453433542</v>
       </c>
     </row>
     <row r="140">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.5745297351345073</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.6746603737713519</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-0.04944505457093484</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>-0.9849732627644932</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="144">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.3494590916866913</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -4057,7 +4057,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.4572188097432799</v>
+        <v>0.2286094048716399</v>
       </c>
     </row>
     <row r="146">
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>-0.4239270081594047</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -4107,7 +4107,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.9562663400918447</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="148">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.778331669024181</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -4157,7 +4157,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.9018160074262462</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="150">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>-0.1008899375506123</v>
+        <v>-0.3333333333333333</v>
       </c>
     </row>
     <row r="151">
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.7766131186126999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-0.6397373958523096</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -4257,7 +4257,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.5017476545337325</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="154">
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.8420453018543972</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -4307,7 +4307,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.8703690980307726</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>-0.4054508115946003</v>
+        <v>-0.2027254057973001</v>
       </c>
     </row>
     <row r="157">
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.7633015829888268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.7713672897746351</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="159">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>-0.5557388332088471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.9626089062613259</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -4457,7 +4457,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.08857554256970568</v>
+        <v>0.04428777128485284</v>
       </c>
     </row>
     <row r="162">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.9377644826031708</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.608247422680412</v>
+        <v>0.304123711340206</v>
       </c>
     </row>
     <row r="164">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.5287409419381468</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -4557,7 +4557,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.9826331790994425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.6638716502704796</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-0.2924033322301758</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="168">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>-0.1806875625492694</v>
+        <v>-0.09034378127463472</v>
       </c>
     </row>
     <row r="169">
@@ -4657,7 +4657,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>-0.2621238015281782</v>
+        <v>-0.3333333333333333</v>
       </c>
     </row>
     <row r="170">
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-0.5915320635464385</v>
+        <v>-0.2957660317732193</v>
       </c>
     </row>
     <row r="171">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>-0.3983800628860117</v>
+        <v>-0.1991900314430058</v>
       </c>
     </row>
     <row r="172">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.3339751315048058</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-0.2754984960862026</v>
+        <v>-0.1377492480431013</v>
       </c>
     </row>
     <row r="174">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.7632810373266343</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.2604936682432273</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="176">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>-0.2195692216318301</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.2831071968587862</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>-0.8326336738682951</v>
+        <v>-0.4163168369341476</v>
       </c>
     </row>
     <row r="179">
@@ -4907,7 +4907,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-0.5336330958810922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>-0.1656686626746506</v>
+        <v>-0.08283433133732532</v>
       </c>
     </row>
     <row r="181">
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.6592007405704543</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -4982,7 +4982,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.9933492965410242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.7125878165564976</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="184">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.9191766418199447</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.9520072629540974</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-0.8047238661894289</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -5107,7 +5107,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0.8177374131034991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.4925661257110479</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0.8909563439972081</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -5182,7 +5182,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.7116517728432794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.5796653219644932</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.1690640922979623</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0.7815328827288155</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="194">
@@ -5282,7 +5282,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0.5403073967719418</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="195">
@@ -5307,7 +5307,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>0.3265362208923845</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.9897927930804991</v>
+        <v>0.4948963965402495</v>
       </c>
     </row>
     <row r="197">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.970154751565643</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.7495744362968504</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -5407,7 +5407,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0.9620510429975042</v>
+        <v>0.4810255214987521</v>
       </c>
     </row>
     <row r="200">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-0.1648979370648882</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -5457,7 +5457,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.9716787669867195</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-0.5535091075118597</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203">
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.3005181347150259</v>
+        <v>0.1502590673575129</v>
       </c>
     </row>
     <row r="204">
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0.4388888888888891</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0.4312554896968033</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -5582,7 +5582,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0.5745734606901189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="208">
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0.8875526811007692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -5657,7 +5657,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>0.1198169801824227</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -5682,7 +5682,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>0.2208716801306971</v>
+        <v>0.1104358400653486</v>
       </c>
     </row>
     <row r="211">
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>0.3743582566465118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-0.3163146006995667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -5757,7 +5757,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.4106939704209327</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -5782,7 +5782,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>-0.3018668803806965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0.3492586026760456</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>0.06306306306306286</v>
+        <v>0.03153153153153143</v>
       </c>
     </row>
     <row r="217">
@@ -5857,7 +5857,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>0.9096122192846559</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -5882,7 +5882,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>-0.8010247537707558</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -5907,7 +5907,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>-0.9999300554563904</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="220">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0.969638092472441</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -5957,7 +5957,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>0.4141272190870613</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>0.8100336198031273</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.9980124392043226</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>0.582058119162929</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -6057,7 +6057,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>-0.911557561325828</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -6082,7 +6082,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>0.007629919765991255</v>
+        <v>0.003814959882995628</v>
       </c>
     </row>
     <row r="227">
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-0.1394360989151038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-0.2735838339225958</v>
+        <v>-0.1367919169612979</v>
       </c>
     </row>
     <row r="229">
@@ -6157,7 +6157,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>0.998618945395483</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>0.9923601868288487</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.9724929806898743</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0.5162977058878215</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -6257,7 +6257,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>0.9883305912603917</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -6282,7 +6282,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>0.9044797661225383</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -6307,7 +6307,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>0.9899888292879182</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>0.5395627640865852</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -6357,7 +6357,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>0.4618049467565046</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="238">
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>0.007629919765991255</v>
+        <v>0.003814959882995628</v>
       </c>
     </row>
     <row r="239">
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>0.9574072077211777</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>0.4199020217433977</v>
+        <v>0.2099510108716989</v>
       </c>
     </row>
     <row r="241">
@@ -6457,7 +6457,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>0.08459715009616819</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -6482,7 +6482,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>0.1367521367521369</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -6507,7 +6507,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>0.9323138287225217</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-0.9862989851180031</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="245">
@@ -6557,7 +6557,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>0.9692720673416502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -6582,7 +6582,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>0.3624599935828465</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>0.699948616202031</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="248">
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>0.4693251278401105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -6657,7 +6657,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0.8613668428800776</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -6682,7 +6682,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-0.4852688490961801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -6707,7 +6707,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-0.2268050527287047</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252">
@@ -6732,7 +6732,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>0.05246556361561661</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -6757,7 +6757,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-0.1984635083226636</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -6782,7 +6782,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-0.7593698793676642</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>0.8803896937083626</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>0.9986007844805003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -6857,7 +6857,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0.8575038331581331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -6882,7 +6882,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>-0.5681681338297242</v>
+        <v>-0.2840840669148621</v>
       </c>
     </row>
     <row r="259">
@@ -6907,7 +6907,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>0.2865514439358219</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="260">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>0.9023564440690965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>-0.1076122695278647</v>
+        <v>-0.05380613476393237</v>
       </c>
     </row>
     <row r="262">
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>0.7395405686223577</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="263">
@@ -7007,7 +7007,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>0.999773577060646</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>0.9210165066672369</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -7057,7 +7057,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>0.5555555555555558</v>
+        <v>0.2777777777777779</v>
       </c>
     </row>
     <row r="266">
@@ -7082,7 +7082,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>0.7224264705882353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -7107,7 +7107,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>0.5789155817440732</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>0.8392263404247338</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -7157,7 +7157,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>0.8819713404475653</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -7182,7 +7182,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>0.01991941794363372</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0.3892754140783596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>0.9387584347413631</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -7257,7 +7257,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>0.9789153514054731</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.7582214344521416</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-0.2791741319962129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>0.845655060651556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -7357,7 +7357,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>0.6753810555060833</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -7382,7 +7382,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>0.9473543363622956</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -7432,7 +7432,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>0.7224264705882353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -7457,7 +7457,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>0.3885614028185791</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="282">
@@ -7482,7 +7482,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>0.9368844465152721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-0.4799335988361169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>0.96173762504284</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285">
@@ -7557,7 +7557,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>0.9999941103478787</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -7582,7 +7582,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>0.9187303891615231</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>0.3296542098175921</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>0.9890567378433919</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="289">
@@ -7657,7 +7657,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>0.08985453990632597</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -7682,7 +7682,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>0.1340217561946635</v>
+        <v>0.06701087809733175</v>
       </c>
     </row>
     <row r="291">
@@ -7707,7 +7707,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>0.5058930231767214</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>0.9333333333333331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -7757,7 +7757,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>0.9956465272196238</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>0.5847765541050656</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -7807,7 +7807,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>0.5348531919351844</v>
+        <v>0.2674265959675922</v>
       </c>
     </row>
     <row r="296">
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>0.9629660902336492</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -7857,7 +7857,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>0.3523547097809026</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -7882,7 +7882,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>0.9743845929920816</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -7907,7 +7907,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>0.6947178863994763</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>0.9998715960607893</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="301">
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>0.53285564726264</v>
+        <v>0.26642782363132</v>
       </c>
     </row>
     <row r="302">
@@ -7982,7 +7982,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>0.3480218136467472</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>0.9942251708221672</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="304">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>0.1936887276336619</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -8057,7 +8057,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>0.1556516348770016</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -8082,7 +8082,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>0.6761928294555235</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -8107,7 +8107,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>-0.9994019090621202</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="308">
@@ -8132,7 +8132,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>0.6527162423632951</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -8157,7 +8157,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>0.2950471985151297</v>
+        <v>0.1475235992575649</v>
       </c>
     </row>
     <row r="310">
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>0.9999916414921359</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -8207,7 +8207,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>0.6183419636366096</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>-0.1084337349397593</v>
+        <v>-0.05421686746987964</v>
       </c>
     </row>
     <row r="313">
@@ -8257,7 +8257,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>0.5824419230477689</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -8282,7 +8282,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>-0.836048637165371</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -8307,7 +8307,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>0.7012257911684032</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-0.03608120844716511</v>
+        <v>-0.01804060422358256</v>
       </c>
     </row>
     <row r="317">
@@ -8357,7 +8357,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-0.01757192219779702</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="318">
@@ -8382,7 +8382,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>0.9807033506436915</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-0.3408126008101735</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>0.7945852534692337</v>
+        <v>0.3972926267346168</v>
       </c>
     </row>
     <row r="321">
@@ -8457,7 +8457,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>-0.5794162585527713</v>
+        <v>-0.2897081292763857</v>
       </c>
     </row>
     <row r="322">
@@ -8482,7 +8482,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-0.1799360731605451</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -8507,7 +8507,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-0.4454745926928474</v>
+        <v>-0.2227372963464237</v>
       </c>
     </row>
     <row r="324">
@@ -8532,7 +8532,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>0.8823629947106832</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -8557,7 +8557,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-0.656629212816811</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="326">
@@ -8582,7 +8582,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>0.9977521590812779</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -8607,7 +8607,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>0.767626717343932</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-0.664463162317942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -8657,7 +8657,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>0.6866086330203074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -8682,7 +8682,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>0.9962856126335198</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="331">
@@ -8707,7 +8707,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>0.8047322743539402</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="332">
@@ -8732,7 +8732,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>0.3729572298619641</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>0.8830301853077303</v>
+        <v>0.4415150926538651</v>
       </c>
     </row>
     <row r="334">
@@ -8782,7 +8782,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>0.6878849330672323</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>0.7707883937742246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -8832,7 +8832,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-0.4318473571515447</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -8857,7 +8857,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-0.5646092224897967</v>
+        <v>-0.2823046112448984</v>
       </c>
     </row>
     <row r="338">
@@ -8882,7 +8882,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>0.1992298110302686</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -8907,7 +8907,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>0.5058930231767214</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>0.8239465104780028</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -8957,7 +8957,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>0.9698253182190242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -8982,7 +8982,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>0.8285382063441313</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -9007,7 +9007,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>0.9999660009864408</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>0.7142857142857144</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="345">
@@ -9057,7 +9057,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>0.5644033649086184</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -9082,7 +9082,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-0.0260410750960296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -9107,7 +9107,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-0.003003003003003046</v>
+        <v>-0.001501501501501523</v>
       </c>
     </row>
     <row r="348">
@@ -9132,7 +9132,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>0.01263968257114567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -9157,7 +9157,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-0.7197858851495296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -9182,7 +9182,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>0.9966456824971917</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="351">
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-0.03787849510732255</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>0.5711181027132544</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -9257,7 +9257,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>0.2683363131795327</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -9282,7 +9282,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>0.8526354940570329</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>-0.1526397455337585</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -9332,7 +9332,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>0.4413355512496726</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -9357,7 +9357,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>-0.939165794750181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -9382,7 +9382,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>0.0880952783190676</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -9407,7 +9407,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-0.7653766177935337</v>
+        <v>-0.3826883088967669</v>
       </c>
     </row>
     <row r="360">
@@ -9432,7 +9432,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>0.3212934007907609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -9457,7 +9457,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>0.2238481877067611</v>
+        <v>0.1119240938533805</v>
       </c>
     </row>
     <row r="362">
@@ -9482,7 +9482,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-0.3403326102556792</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -9507,7 +9507,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>0.7565752397991752</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -9532,7 +9532,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>0.7246437554774863</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -9557,7 +9557,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>0.9422037267901591</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -9582,7 +9582,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-0.7007786566932446</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="367">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>0.736831554422535</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -9632,7 +9632,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>0.4756674937840335</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -9657,7 +9657,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>-0.8431017113773813</v>
+        <v>-0.4215508556886907</v>
       </c>
     </row>
     <row r="370">
@@ -9682,7 +9682,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>0.7732755120826893</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -9707,7 +9707,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>0.1235974626802228</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="372">
@@ -9732,7 +9732,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>-0.6287119096108522</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -9757,7 +9757,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>0.5283853481017609</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="374">
@@ -9782,7 +9782,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-0.2684286168709304</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -9807,7 +9807,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.3260869565217391</v>
       </c>
     </row>
     <row r="376">
@@ -9832,7 +9832,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>0.1103163258943123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -9857,7 +9857,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>0.9980057375335167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -9882,7 +9882,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>0.2251301067888403</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
@@ -9907,7 +9907,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>0.952281970309435</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -9932,7 +9932,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-0.5033764235064264</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -9957,7 +9957,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>0.02406859252367743</v>
+        <v>0.01203429626183872</v>
       </c>
     </row>
     <row r="382">
@@ -9982,753 +9982,757 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>0.5863045965931384</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t**9</t>
+          <t>萧**5</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>货收到了，确实好</t>
+          <t>很好，客服服务也很好，发货速度很快第二天就收到货了，太感谢了！！一次满意的购物！！！！</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>好</t>
-        </is>
-      </c>
-      <c r="D383" t="inlineStr"/>
+          <t>好，客服服务也好，发货速度快第二天就收到货，太感谢，一次满意购物</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>客服/服务/也好/发货/速度/第二天/收到/感谢/一次/满意/购物</t>
+        </is>
+      </c>
       <c r="E383" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>萧**5</t>
+          <t>花**希</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>很好，客服服务也很好，发货速度很快第二天就收到货了，太感谢了！！一次满意的购物！！！！</t>
+          <t>质量不错，带轮的也没有那么滑，很方便助步</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>好，客服服务也好，发货速度快第二天就收到货，太感谢，一次满意购物</t>
+          <t>质量不错，带轮没有滑，方便助步</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>客服/服务/也好/发货/速度/第二天/收到/感谢/一次/满意/购物</t>
+          <t>质量/不错/带轮/没有/方便/助步</t>
         </is>
       </c>
       <c r="E384" t="n">
-        <v>-0.408173066286968</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>花**希</t>
+          <t>s**1</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>质量不错，带轮的也没有那么滑，很方便助步</t>
+          <t>助行器非常稳固，移步也很轻便，老妈用了走路也安全了许多。点赞。</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>质量不错，带轮没有滑，方便助步</t>
+          <t>助行器稳固，移步轻便，老妈用走路安全，点赞</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>质量/不错/带轮/没有/方便/助步</t>
+          <t>助行器/稳固/移步/轻便/老妈/走路/安全/点赞</t>
         </is>
       </c>
       <c r="E385" t="n">
-        <v>0.7922287404935919</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>s**1</t>
+          <t>爱**9</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>助行器非常稳固，移步也很轻便，老妈用了走路也安全了许多。点赞。</t>
+          <t>质量很好，值得购买</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>助行器稳固，移步轻便，老妈用走路安全，点赞</t>
+          <t>质量好，值得购买</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>助行器/稳固/移步/轻便/老妈/走路/安全/点赞</t>
+          <t>质量/值得/购买</t>
         </is>
       </c>
       <c r="E386" t="n">
-        <v>0.993688825480159</v>
+        <v>0.3202606209887207</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>爱**9</t>
+          <t>云**暖</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>质量很好，值得购买</t>
+          <t>此款宝贝对腿脚不方便的老人很有用，好评。</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>质量好，值得购买</t>
+          <t>此款宝贝腿脚不方便老人有用，好评</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>质量/值得/购买</t>
+          <t>此款/宝贝/腿脚/方便/老人/有用/好评</t>
         </is>
       </c>
       <c r="E387" t="n">
-        <v>0.6405212419774413</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>云**暖</t>
+          <t>q**3</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>此款宝贝对腿脚不方便的老人很有用，好评。</t>
+          <t>实物与图片相符，无出去相差，值得推荐购买。客服小姐姐很热情的服务。解惑各种疑问。为客服小丽点赞。物流发的顺丰很快就收到了。</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>此款宝贝腿脚不方便老人有用，好评</t>
+          <t>实物图片相符，出去相差，值得推荐购买，客服小姐姐热情服务，解惑疑问，客服小丽点赞，物流发顺丰快就收到</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>此款/宝贝/腿脚/方便/老人/有用/好评</t>
+          <t>实物图片/相符/出去/相差/值得/推荐/购买/客服/小姐姐/热情服务/解惑/疑问/客服/小丽点/物流/发顺/丰快/收到</t>
         </is>
       </c>
       <c r="E388" t="n">
-        <v>0.9476292550273526</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>q**3</t>
+          <t>q**4</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>实物与图片相符，无出去相差，值得推荐购买。客服小姐姐很热情的服务。解惑各种疑问。为客服小丽点赞。物流发的顺丰很快就收到了。</t>
+          <t>客服好沟通，物流很迅速！在农村都两三天就收到了，拿到以后很好调节，质量也很不错，不重。推荐 ！</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>实物图片相符，出去相差，值得推荐购买，客服小姐姐热情服务，解惑疑问，客服小丽点赞，物流发顺丰快就收到</t>
+          <t xml:space="preserve">客服好沟通，物流迅速，在农村两三天就收到，拿到以后好调节，质量不错，不重，推荐 </t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>实物图片/相符/出去/相差/值得/推荐/购买/客服/小姐姐/热情服务/解惑/疑问/客服/小丽点/物流/发顺/丰快/收到</t>
+          <t>客服/沟通/物流/迅速/农村/两三天/收到/拿到/以后/调节/质量/不错/推荐</t>
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-0.870191016992391</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>q**4</t>
+          <t>大**h</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>客服好沟通，物流很迅速！在农村都两三天就收到了，拿到以后很好调节，质量也很不错，不重。推荐 ！</t>
+          <t>雅德助力器，当我收到货后打开一实太棒了真是老人的，福气满满太棒了价格便宜东西决了大家放心的买买买，，，，，</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t xml:space="preserve">客服好沟通，物流迅速，在农村两三天就收到，拿到以后好调节，质量不错，不重，推荐 </t>
+          <t>雅德助力器，收到货后打开一实太棒了真是老人，福气满满太棒了价格便宜东西决了放心买买买</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>客服/沟通/物流/迅速/农村/两三天/收到/拿到/以后/调节/质量/不错/推荐</t>
+          <t>雅德/助力器/收到/货后/打开/一实/太棒了/真是/老人/福气/满满/太棒了/价格便宜/东西/决了/放心/买买</t>
         </is>
       </c>
       <c r="E390" t="n">
-        <v>-0.1069048386238032</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>大**h</t>
+          <t>只**已</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>雅德助力器，当我收到货后打开一实太棒了真是老人的，福气满满太棒了价格便宜东西决了大家放心的买买买，，，，，</t>
+          <t>很不错，老人很喜欢，更推荐有坐板的那个，就是贵了点，但是老人出去散步的时候会很舒服</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>雅德助力器，收到货后打开一实太棒了真是老人，福气满满太棒了价格便宜东西决了放心买买买</t>
+          <t>不错，老人喜欢，更推荐坐板，贵点，老人出去散步会舒服</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>雅德/助力器/收到/货后/打开/一实/太棒了/真是/老人/福气/满满/太棒了/价格便宜/东西/决了/放心/买买</t>
+          <t>不错/老人/喜欢/推荐/坐板/贵点/老人/出去/散步/舒服</t>
         </is>
       </c>
       <c r="E391" t="n">
-        <v>0.9694069831616738</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>只**已</t>
+          <t>t**6</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>很不错，老人很喜欢，更推荐有坐板的那个，就是贵了点，但是老人出去散步的时候会很舒服</t>
+          <t>还可以就是没坐的</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>不错，老人喜欢，更推荐坐板，贵点，老人出去散步会舒服</t>
+          <t>没座位</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>不错/老人/喜欢/推荐/坐板/贵点/老人/出去/散步/舒服</t>
+          <t>座位</t>
         </is>
       </c>
       <c r="E392" t="n">
-        <v>0.9959352882707306</v>
+        <v>0.2692307692307692</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t**6</t>
+          <t>太**圈</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>还可以就是没坐的</t>
+          <t>做工质量非常好，使用很方便，客服服务态度也非常认真负责，好评了。</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>没座位</t>
+          <t>做工质量好，使用方便，客服服务态度认真负责，好评</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>座位</t>
+          <t>做工/质量/使用方便/客服/服务态度/认真负责/好评</t>
         </is>
       </c>
       <c r="E393" t="n">
-        <v>0.5384615384615383</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>太**圈</t>
+          <t>水**1</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>做工质量非常好，使用很方便，客服服务态度也非常认真负责，好评了。</t>
+          <t>妈妈刚做完手术 用着很适合 卖家客服很好</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>做工质量好，使用方便，客服服务态度认真负责，好评</t>
+          <t>妈妈刚做完手术 用适合 卖家客服好</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>做工/质量/使用方便/客服/服务态度/认真负责/好评</t>
+          <t>妈妈/手术/适合/卖家/客服</t>
         </is>
       </c>
       <c r="E394" t="n">
-        <v>-0.8065716230622979</v>
+        <v>0.241790059357582</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>水**1</t>
+          <t>p**5</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>妈妈刚做完手术 用着很适合 卖家客服很好</t>
+          <t>买的时候忐忑不安，收到后给我意外的惊喜，真的太棒啦！</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>妈妈刚做完手术 用适合 卖家客服好</t>
+          <t>买忐忑不安，收到给意外惊喜，真的太棒</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>妈妈/手术/适合/卖家/客服</t>
+          <t>忐忑不安/收到/意外/惊喜/真的/太棒</t>
         </is>
       </c>
       <c r="E395" t="n">
-        <v>0.483580118715164</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>p**5</t>
+          <t>0**t</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>买的时候忐忑不安，收到后给我意外的惊喜，真的太棒啦！</t>
+          <t>物流超快，质量很好，使用方便，适合老人康复！客服小丽态度好！</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>买忐忑不安，收到给意外惊喜，真的太棒</t>
+          <t>物流超快，质量好，使用方便，适合老人康复，客服小丽态度好</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>忐忑不安/收到/意外/惊喜/真的/太棒</t>
+          <t>物流/超快/质量/使用方便/适合/老人/康复/客服/小丽/态度</t>
         </is>
       </c>
       <c r="E396" t="n">
-        <v>0.995636508375306</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>0**t</t>
+          <t>t**8</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>物流超快，质量很好，使用方便，适合老人康复！客服小丽态度好！</t>
+          <t>爸爸脚受伤，拍了一个，质量不错👍，比外面药店又便宜质量又好</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>物流超快，质量好，使用方便，适合老人康复，客服小丽态度好</t>
+          <t>爸爸脚受伤，拍一个，质量不错，外面药店便宜质量好</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>物流/超快/质量/使用方便/适合/老人/康复/客服/小丽/态度</t>
+          <t>爸爸/受伤/一个/质量/不错/外面/药店/便宜/质量</t>
         </is>
       </c>
       <c r="E397" t="n">
-        <v>-0.07668491716540737</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t**8</t>
+          <t>t**3</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>爸爸脚受伤，拍了一个，质量不错👍，比外面药店又便宜质量又好</t>
+          <t>便宜好用，老人康复的好帮手。</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>爸爸脚受伤，拍一个，质量不错，外面药店便宜质量好</t>
+          <t>便宜好用，老人康复好帮手</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>爸爸/受伤/一个/质量/不错/外面/药店/便宜/质量</t>
+          <t>便宜/好用/老人/康复/好帮手</t>
         </is>
       </c>
       <c r="E398" t="n">
-        <v>0.9933892800116224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t**3</t>
+          <t>f**e</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>便宜好用，老人康复的好帮手。</t>
+          <t>买来时就是装好的，使用调整都很方便。</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>便宜好用，老人康复好帮手</t>
+          <t>买来时装好，使用调整方便</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>便宜/好用/老人/康复/好帮手</t>
+          <t>买来/时装/使用/调整/方便</t>
         </is>
       </c>
       <c r="E399" t="n">
-        <v>0.6440208921154582</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>f**e</t>
+          <t>留**j</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>买来时就是装好的，使用调整都很方便。</t>
+          <t>这质量看着很结实，就是坐便太短了，要是再长点就好了，总体来说还不错的</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>买来时装好，使用调整方便</t>
+          <t>这质量看着结实，坐便太短，长点就好，总体不错</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>买来/时装/使用/调整/方便</t>
+          <t>质量/看着/结实/太短/长点/总体/不错</t>
         </is>
       </c>
       <c r="E400" t="n">
-        <v>0.5525638277001728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>留**j</t>
+          <t>s**5</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>这质量看着很结实，就是坐便太短了，要是再长点就好了，总体来说还不错的</t>
+          <t>质量特别好，这下婆婆能扶着走了！</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>这质量看着结实，坐便太短，长点就好，总体不错</t>
+          <t>质量好，这下婆婆能扶走</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>质量/看着/结实/太短/长点/总体/不错</t>
+          <t>质量/这下/婆婆</t>
         </is>
       </c>
       <c r="E401" t="n">
-        <v>0.7611634110138719</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>s**5</t>
+          <t>胖**胖</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>质量特别好，这下婆婆能扶着走了！</t>
+          <t>轻便   折叠也很方便   客服态度也特别好  值得大家购买</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>质量好，这下婆婆能扶走</t>
+          <t>轻便 折叠方便 客服态度也好 值得购买</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>质量/这下/婆婆</t>
+          <t>轻便/折叠/方便/客服/态度/也好/值得/购买</t>
         </is>
       </c>
       <c r="E402" t="n">
-        <v>0.3131315285880309</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>胖**胖</t>
+          <t>零**头</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>轻便   折叠也很方便   客服态度也特别好  值得大家购买</t>
+          <t>好用，很方便</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>轻便 折叠方便 客服态度也好 值得购买</t>
+          <t>好用，方便</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>轻便/折叠/方便/客服/态度/也好/值得/购买</t>
+          <t>好用/方便</t>
         </is>
       </c>
       <c r="E403" t="n">
-        <v>0.4823875014612371</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>零**头</t>
+          <t>何**庭</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>好用，很方便</t>
+          <t>给老人提供了方便，很好！</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>好用，方便</t>
+          <t>给老人提供方便，好</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>好用/方便</t>
+          <t>老人/提供方便</t>
         </is>
       </c>
       <c r="E404" t="n">
-        <v>0.3117256417880858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>何**庭</t>
+          <t>玉**2</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>给老人提供了方便，很好！</t>
+          <t>不知道咋样 还没开始用</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>给老人提供方便，好</t>
+          <t>不知道咋样 没开始用</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>老人/提供方便</t>
+          <t>知道/咋样/开始</t>
         </is>
       </c>
       <c r="E405" t="n">
-        <v>0.01557026524070126</v>
+        <v>-0.3571428571428571</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>玉**2</t>
+          <t>t**7</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>不知道咋样 还没开始用</t>
+          <t>质量很好，材质轻便，修行家里老人</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>不知道咋样 没开始用</t>
+          <t>质量好，材质轻便，修行家里长辈</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>知道/咋样/开始</t>
+          <t>质量/材质/轻便/修行/家里/长辈</t>
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-0.7142857142857142</v>
+        <v>0.499639092758141</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t**7</t>
+          <t>智**源</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>质量很好，材质轻便，修行家里老人</t>
+          <t>轻巧且稳，满意</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>质量好，材质轻便，修行家里长辈</t>
+          <t>轻巧稳，满意</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>质量/材质/轻便/修行/家里/长辈</t>
+          <t>轻巧/满意</t>
         </is>
       </c>
       <c r="E407" t="n">
-        <v>0.999278185516282</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>智**源</t>
+          <t>t**3</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>轻巧且稳，满意</t>
+          <t>宝贝收到了，质量很好。</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>轻巧稳，满意</t>
+          <t>宝贝收到，质量好</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>轻巧/满意</t>
+          <t>宝贝/收到/质量</t>
         </is>
       </c>
       <c r="E408" t="n">
-        <v>0.9685037238501981</v>
+        <v>0.1647445576316684</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t**3</t>
+          <t>t**1</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>宝贝收到了，质量很好。</t>
+          <t>确实结实耐用。特别稳家里老人用</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>宝贝收到，质量好</t>
+          <t>结实耐用，稳家里老人用</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>宝贝/收到/质量</t>
+          <t>结实/耐用/家里/老人</t>
         </is>
       </c>
       <c r="E409" t="n">
-        <v>0.3294891152633368</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t**1</t>
+          <t>y**o</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>确实结实耐用。特别稳家里老人用</t>
+          <t>质量很好啊 可以调节高度 还不错的 百合客服也不错哦</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>结实耐用，稳家里老人用</t>
+          <t>质量好 可以调节高度 不错 百合客服不错</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>结实/耐用/家里/老人</t>
+          <t>质量/可以/调节/高度/不错/百合/客服/不错</t>
         </is>
       </c>
       <c r="E410" t="n">
-        <v>0.7765039467419765</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>y**o</t>
+          <t>e**g</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>质量很好啊 可以调节高度 还不错的 百合客服也不错哦</t>
+          <t>以前购过一台，这次是帮别人购的，值得信赖的卖家！</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>质量好 可以调节高度 不错 百合客服不错</t>
+          <t>以前购过一台，是帮别人购，值得信赖卖家</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>质量/可以/调节/高度/不错/百合/客服/不错</t>
+          <t>以前/购过/一台/帮别人/值得/信赖/卖家</t>
         </is>
       </c>
       <c r="E411" t="n">
-        <v>0.4073768643008326</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>e**g</t>
+          <t>t**4</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>以前购过一台，这次是帮别人购的，值得信赖的卖家！</t>
+          <t>质量很好，很稳固满意，收到货物超所值，推荐购买</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>以前购过一台，是帮别人购，值得信赖卖家</t>
+          <t>质量好，稳固满意，收到货物超所值，推荐购买</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>以前/购过/一台/帮别人/值得/信赖/卖家</t>
+          <t>质量/稳固/满意/收到/物超所值/推荐/购买</t>
         </is>
       </c>
       <c r="E412" t="n">
-        <v>0.9588608699248407</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
@@ -10739,1746 +10743,1746 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>质量很好，很稳固满意，收到货物超所值，推荐购买</t>
+          <t>不错！架子很厚实，很稳固，买给***，奶奶说扶着走路很稳！刚开始买有很多疑问，客服小丽都很耐心帮我解答！收到货更是物超所值。推荐购买</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>质量好，稳固满意，收到货物超所值，推荐购买</t>
+          <t>不错，架子厚实，稳固，买给，奶奶说扶走路稳，刚开始买疑问，客服丽都耐心帮解答，收到货更是物超所值，推荐购买</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>质量/稳固/满意/收到/物超所值/推荐/购买</t>
+          <t>不错/架子/厚实/稳固/奶奶/走路/开始/疑问/客服/丽都/耐心/解答/收到/更是/物超所值/推荐/购买</t>
         </is>
       </c>
       <c r="E413" t="n">
-        <v>0.9903609924928192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t**4</t>
+          <t>t**3</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>不错！架子很厚实，很稳固，买给***，奶奶说扶着走路很稳！刚开始买有很多疑问，客服小丽都很耐心帮我解答！收到货更是物超所值。推荐购买</t>
+          <t>这是买了第二个，老人说很好用</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>不错，架子厚实，稳固，买给，奶奶说扶走路稳，刚开始买疑问，客服丽都耐心帮解答，收到货更是物超所值，推荐购买</t>
+          <t>这是买第二个，老人说好用</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>不错/架子/厚实/稳固/奶奶/走路/开始/疑问/客服/丽都/耐心/解答/收到/更是/物超所值/推荐/购买</t>
+          <t>第二个/老人/说好</t>
         </is>
       </c>
       <c r="E414" t="n">
-        <v>0.9740326840348605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t**3</t>
+          <t>h**0</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>这是买了第二个，老人说很好用</t>
+          <t>宝贝收到了 质量很不错   客服人员服务很到位。实物与图片一样 满意</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>这是买第二个，老人说好用</t>
+          <t>宝贝收到 质量不错 客服人员服务到位，实物图片一样 满意</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>第二个/老人/说好</t>
+          <t>宝贝/收到/质量/不错/客服/人员/服务到位/实物图片/一样/满意</t>
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-0.03771603863805217</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>h**0</t>
+          <t>t**2</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>宝贝收到了 质量很不错   客服人员服务很到位。实物与图片一样 满意</t>
+          <t>稳稳的，但是我家老人就是不用，爱面子。</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>宝贝收到 质量不错 客服人员服务到位，实物图片一样 满意</t>
+          <t>稳稳，我家老人不用，爱面子</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>宝贝/收到/质量/不错/客服/人员/服务到位/实物图片/一样/满意</t>
+          <t>稳稳/我家/老人/不用/爱面子</t>
         </is>
       </c>
       <c r="E416" t="n">
-        <v>0.7727952458476284</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t**2</t>
+          <t>三**游</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>稳稳的，但是我家老人就是不用，爱面子。</t>
+          <t>质量很好，不重，给老妈买的康复训练用，用了一段时间有效果，身体硬朗多了。百合客服耐心细致的讲解，百问不烦，值得👍</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>稳稳，我家老人不用，爱面子</t>
+          <t>质量好，不重，给老妈买康复训练用，用一段时间效果，身体硬朗，百合客服耐心细致讲解，百问不烦，值得</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>稳稳/我家/老人/不用/爱面子</t>
+          <t>质量/老妈/康复训练/一段时间/效果/身体/硬朗/百合/客服/耐心/细致/讲解/百问不烦/值得</t>
         </is>
       </c>
       <c r="E417" t="n">
-        <v>0.7287178472234437</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>三**游</t>
+          <t>慧**8</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>质量很好，不重，给老妈买的康复训练用，用了一段时间有效果，身体硬朗多了。百合客服耐心细致的讲解，百问不烦，值得👍</t>
+          <t>还不多，用多几天看看质量怎样，重点有保修，比外面买的好！</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>质量好，不重，给老妈买康复训练用，用一段时间效果，身体硬朗，百合客服耐心细致讲解，百问不烦，值得</t>
+          <t>不，用几天看看质量，重点保修，外面买好</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>质量/老妈/康复训练/一段时间/效果/身体/硬朗/百合/客服/耐心/细致/讲解/百问不烦/值得</t>
+          <t>几天/看看/质量/重点/保修/外面/买好</t>
         </is>
       </c>
       <c r="E418" t="n">
-        <v>0.9996486470360726</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>慧**8</t>
+          <t>潇**家</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>还不多，用多几天看看质量怎样，重点有保修，比外面买的好！</t>
+          <t>非常好！简单便捷，质量上乘，推荐购买</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>不，用几天看看质量，重点保修，外面买好</t>
+          <t>好，简单便捷，质量上乘，推荐购买</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>几天/看看/质量/重点/保修/外面/买好</t>
+          <t>简单/便捷/质量上乘/推荐/购买</t>
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-0.3860443121673229</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>潇**家</t>
+          <t>t**2</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>非常好！简单便捷，质量上乘，推荐购买</t>
+          <t>老人用着很方便</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>好，简单便捷，质量上乘，推荐购买</t>
+          <t>老人用方便</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>简单/便捷/质量上乘/推荐/购买</t>
+          <t>老人/方便</t>
         </is>
       </c>
       <c r="E420" t="n">
-        <v>0.9949794248586024</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t**2</t>
+          <t>好**8</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>老人用着很方便</t>
+          <t>这款质量够硬朗，有一定的重量，可以放心购买</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>老人用方便</t>
+          <t>这款质量够硬朗，一定重量，可以放心购买</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>老人/方便</t>
+          <t>质量/硬朗/一定/重量/可以/放心/购买</t>
         </is>
       </c>
       <c r="E421" t="n">
-        <v>0.1851851851851845</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>好**8</t>
+          <t>t**0</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>这款质量够硬朗，有一定的重量，可以放心购买</t>
+          <t>货收到了质量很好，老人非常满意，结实，安装又方便</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>这款质量够硬朗，一定重量，可以放心购买</t>
+          <t>货收到质量好，老人满意，结实，安装方便</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>质量/硬朗/一定/重量/可以/放心/购买</t>
+          <t>收到/质量/老人/满意/结实/安装/方便</t>
         </is>
       </c>
       <c r="E422" t="n">
-        <v>0.9551138163993012</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t**0</t>
+          <t>勿**4</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>货收到了质量很好，老人非常满意，结实，安装又方便</t>
+          <t>老年人上了岁数走路时候膝盖不能吃力，这款助行器真的非常好。 不仅仅是助行器他还有很多功能，比如普通的助行，推动行走，累了可坐还可以当马桶的扶手</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>货收到质量好，老人满意，结实，安装方便</t>
+          <t>老年人岁数走路膝盖不能吃力，这款助行器真的好， 不仅仅是助行器多功能，普通助行，推动行走，累可坐可以马桶扶手</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>收到/质量/老人/满意/结实/安装/方便</t>
+          <t>老年人/岁数/走路/膝盖/不能/吃力/这款/助行器/真的/不仅仅/助行器/多功能/普通/助行/推动/行走/可以/马桶/扶手</t>
         </is>
       </c>
       <c r="E423" t="n">
-        <v>0.04504917601666003</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>勿**4</t>
+          <t>熊**人</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>老年人上了岁数走路时候膝盖不能吃力，这款助行器真的非常好。 不仅仅是助行器他还有很多功能，比如普通的助行，推动行走，累了可坐还可以当马桶的扶手</t>
+          <t>老妈最近脚动了手术走路不方便多亏了这个扶走神器老妈才能走慢慢的走了，不错可以调高低的也很轻固的</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>老年人岁数走路膝盖不能吃力，这款助行器真的好， 不仅仅是助行器多功能，普通助行，推动行走，累可坐可以马桶扶手</t>
+          <t>老妈最近脚动手术走路不方便多亏扶走神器老妈走慢慢走，不错可以调高低轻固</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>老年人/岁数/走路/膝盖/不能/吃力/这款/助行器/真的/不仅仅/助行器/多功能/普通/助行/推动/行走/可以/马桶/扶手</t>
+          <t>老妈/最近/动手术/走路/方便/多亏/神器/老妈/慢慢/不错/可以/高低/轻固</t>
         </is>
       </c>
       <c r="E424" t="n">
-        <v>0.9928908262444784</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>熊**人</t>
+          <t>z**b</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>老妈最近脚动了手术走路不方便多亏了这个扶走神器老妈才能走慢慢的走了，不错可以调高低的也很轻固的</t>
+          <t>宝贝很好，快递不行</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>老妈最近脚动手术走路不方便多亏扶走神器老妈走慢慢走，不错可以调高低轻固</t>
+          <t>宝贝好，快递不行</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>老妈/最近/动手术/走路/方便/多亏/神器/老妈/慢慢/不错/可以/高低/轻固</t>
+          <t>宝贝/快递/不行</t>
         </is>
       </c>
       <c r="E425" t="n">
-        <v>0.207205078120414</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>z**b</t>
+          <t>_**_</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>宝贝很好，快递不行</t>
+          <t>东西非常好，价格实惠。非常好的店铺，推荐！</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>宝贝好，快递不行</t>
+          <t>东西好，价格实惠，好店铺，推荐</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>宝贝/快递/不行</t>
+          <t>东西/价格/实惠/店铺/推荐</t>
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-0.4656329527350607</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>_**_</t>
+          <t>t**1</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>东西非常好，价格实惠。非常好的店铺，推荐！</t>
+          <t>蛮好，客服推荐的挺好。质量也不错，还挺重</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>东西好，价格实惠，好店铺，推荐</t>
+          <t>蛮好，客服推荐好，质量不错，挺重</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>东西/价格/实惠/店铺/推荐</t>
+          <t>客服/推荐/质量/不错/挺重</t>
         </is>
       </c>
       <c r="E427" t="n">
-        <v>0.8517465126094907</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t**1</t>
+          <t>陈**6</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>蛮好，客服推荐的挺好。质量也不错，还挺重</t>
+          <t>质量还可以，挺好的，满意</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>蛮好，客服推荐好，质量不错，挺重</t>
+          <t>质量可以，好，满意</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>客服/推荐/质量/不错/挺重</t>
+          <t>质量/可以/满意</t>
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-0.1000645462255303</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>陈**6</t>
+          <t>一**然</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>质量还可以，挺好的，满意</t>
+          <t>好用，好人很喜欢，非常实用，还结实，厚实</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>质量可以，好，满意</t>
+          <t>好用，好人喜欢，实用，结实，厚实</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>质量/可以/满意</t>
+          <t>好用/好人/喜欢/实用/结实/厚实</t>
         </is>
       </c>
       <c r="E429" t="n">
-        <v>0.3635139041975139</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>一**然</t>
+          <t>辉**乐</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>好用，好人很喜欢，非常实用，还结实，厚实</t>
+          <t>挺好的，不用再担心老人摔跤了</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>好用，好人喜欢，实用，结实，厚实</t>
+          <t>好，不用担心老人摔跤</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>好用/好人/喜欢/实用/结实/厚实</t>
+          <t>不用/担心/老人/摔跤</t>
         </is>
       </c>
       <c r="E430" t="n">
-        <v>0.9825629112590217</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>辉**乐</t>
+          <t>美**猫</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>挺好的，不用再担心老人摔跤了</t>
+          <t>轻轻的 很结实。物流也很快。支持</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>好，不用担心老人摔跤</t>
+          <t>轻轻 结实，物流快，支持</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>不用/担心/老人/摔跤</t>
+          <t>轻轻/结实/物流/支持</t>
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-0.1339311585405969</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>美**猫</t>
+          <t>张**9</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>轻轻的 很结实。物流也很快。支持</t>
+          <t>质量非常好，推荐，客服服务也特别好，感谢</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>轻轻 结实，物流快，支持</t>
+          <t>质量好，推荐，客服服务也好，感谢</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>轻轻/结实/物流/支持</t>
+          <t>质量/推荐/客服/服务/也好/感谢</t>
         </is>
       </c>
       <c r="E432" t="n">
-        <v>0.495645963710277</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>张**9</t>
+          <t>t**7</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>质量非常好，推荐，客服服务也特别好，感谢</t>
+          <t>很结实，收纳也方便，重量轻，用起来无负担</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>质量好，推荐，客服服务也好，感谢</t>
+          <t>结实，收纳方便，重量轻，用负担</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>质量/推荐/客服/服务/也好/感谢</t>
+          <t>结实/收纳/方便/重量轻/负担</t>
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-0.6182088034509297</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t**7</t>
+          <t>冰**1</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>很结实，收纳也方便，重量轻，用起来无负担</t>
+          <t>质量好，快递快</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>结实，收纳方便，重量轻，用负担</t>
+          <t>质量好，快递快</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>结实/收纳/方便/重量轻/负担</t>
+          <t>质量/快递</t>
         </is>
       </c>
       <c r="E434" t="n">
-        <v>0.9948327690081302</v>
+        <v>-0.283325727405074</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>冰**1</t>
+          <t>单**女</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>质量好，快递快</t>
+          <t>很不错，结实好用，顺风快递太给力了！</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>质量好，快递快</t>
+          <t>不错，结实好用，顺风快递太给力</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>质量/快递</t>
+          <t>不错/结实/好用/顺风/快递/太给力</t>
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-0.566651454810148</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>单**女</t>
+          <t>拈**q</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>很不错，结实好用，顺风快递太给力了！</t>
+          <t>材质不错，脚垫防滑很好。</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>不错，结实好用，顺风快递太给力</t>
+          <t>材质不错，脚垫防滑好</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>不错/结实/好用/顺风/快递/太给力</t>
+          <t>材质/不错/脚垫/防滑</t>
         </is>
       </c>
       <c r="E436" t="n">
-        <v>0.1526175249874397</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>拈**q</t>
+          <t>连**强</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>材质不错，脚垫防滑很好。</t>
+          <t>总体来说还可以，客服态度很好。</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>材质不错，脚垫防滑好</t>
+          <t>总体可以，客服态度好</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>材质/不错/脚垫/防滑</t>
+          <t>总体/可以/客服/态度</t>
         </is>
       </c>
       <c r="E437" t="n">
-        <v>0.008164115277362605</v>
+        <v>-0.334146105602787</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>连**强</t>
+          <t>j**l</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>总体来说还可以，客服态度很好。</t>
+          <t>值得购买</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>总体可以，客服态度好</t>
+          <t>值得购买</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>总体/可以/客服/态度</t>
+          <t>值得/购买</t>
         </is>
       </c>
       <c r="E438" t="n">
-        <v>-0.668292211205574</v>
+        <v>0.3360528628297332</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>j**l</t>
+          <t>一**2</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>值得购买</t>
+          <t>东西很好，很喜欢 挺扎实的</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>值得购买</t>
+          <t>东西好，喜欢 扎实</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>值得/购买</t>
+          <t>东西/喜欢/扎实</t>
         </is>
       </c>
       <c r="E439" t="n">
-        <v>0.6721057256594665</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>一**2</t>
+          <t>李**0</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>东西很好，很喜欢 挺扎实的</t>
+          <t>不错，给老人家用，稳固好用。</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>东西好，喜欢 扎实</t>
+          <t>不错，给老人家用，稳固好用</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>东西/喜欢/扎实</t>
+          <t>不错/老人家/稳固/好用</t>
         </is>
       </c>
       <c r="E440" t="n">
-        <v>0.9198998644030605</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>李**0</t>
+          <t>a**0</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>不错，给老人家用，稳固好用。</t>
+          <t>安装简单，客服耐心地介绍了使用方法，腿脚不便的老人，使用后感觉助行器轻巧，辅助走路稳当</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>不错，给老人家用，稳固好用</t>
+          <t>安装简单，客服耐心推荐使用方法，腿脚不便长辈，使用感觉助行器轻巧，辅助走路稳当</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>不错/老人家/稳固/好用</t>
+          <t>安装简单/客服/耐心/推荐/使用/方法/腿脚/不便/长辈/使用/感觉/助行器/轻巧/辅助/走路/稳当</t>
         </is>
       </c>
       <c r="E441" t="n">
-        <v>0.920520428927833</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>a**0</t>
+          <t>李**1</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>安装简单，客服耐心地介绍了使用方法，腿脚不便的老人，使用后感觉助行器轻巧，辅助走路稳当</t>
+          <t>非常合适，重量也轻，看着也结实，满意的一次购物</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>安装简单，客服耐心推荐使用方法，腿脚不便长辈，使用感觉助行器轻巧，辅助走路稳当</t>
+          <t>合适，重量轻，看着结实，满意一次购物</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>安装简单/客服/耐心/推荐/使用/方法/腿脚/不便/长辈/使用/感觉/助行器/轻巧/辅助/走路/稳当</t>
+          <t>合适/重量轻/看着/结实/满意/一次/购物</t>
         </is>
       </c>
       <c r="E442" t="n">
-        <v>0.9878121854580679</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>李**1</t>
+          <t>乐**千</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>非常合适，重量也轻，看着也结实，满意的一次购物</t>
+          <t>算可以吧</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>合适，重量轻，看着结实，满意一次购物</t>
+          <t>算可以</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>合适/重量轻/看着/结实/满意/一次/购物</t>
+          <t>可以</t>
         </is>
       </c>
       <c r="E443" t="n">
-        <v>0.9807809279701818</v>
+        <v>0.0262327818078083</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>乐**千</t>
+          <t>栀**9</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>算可以吧</t>
+          <t>买来给家里老人使用的，感觉还不错挺结实的</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>算可以</t>
+          <t>买来给家里老人使用，感觉不错结实</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>可以</t>
+          <t>买来/家里/老人/使用/感觉/不错/结实</t>
         </is>
       </c>
       <c r="E444" t="n">
-        <v>0.05246556361561661</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>栀**9</t>
+          <t>昌**乡</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>买来给家里老人使用的，感觉还不错挺结实的</t>
+          <t>经济实惠，安装方便。得心应手。</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>买来给家里老人使用，感觉不错结实</t>
+          <t>经济实惠，安装方便，得心应手</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>买来/家里/老人/使用/感觉/不错/结实</t>
+          <t>经济/实惠/安装/方便/得心应手</t>
         </is>
       </c>
       <c r="E445" t="n">
-        <v>0.9273262343791653</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>昌**乡</t>
+          <t>1**1</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>经济实惠，安装方便。得心应手。</t>
+          <t>用上了，还是很实用的！</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>经济实惠，安装方便，得心应手</t>
+          <t>用，实用</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>经济/实惠/安装/方便/得心应手</t>
+          <t>实用</t>
         </is>
       </c>
       <c r="E446" t="n">
-        <v>0.9395926950029441</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>1**1</t>
+          <t>无**6</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>用上了，还是很实用的！</t>
+          <t>很好 方便 实用</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>用，实用</t>
+          <t>好 方便 实用</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>实用</t>
+          <t>方便/实用</t>
         </is>
       </c>
       <c r="E447" t="n">
-        <v>0.3529411764705881</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>无**6</t>
+          <t>s**5</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>很好 方便 实用</t>
+          <t>好得很哟值得购买</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>好 方便 实用</t>
+          <t>好值得购买</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>方便/实用</t>
+          <t>值得/购买</t>
         </is>
       </c>
       <c r="E448" t="n">
-        <v>0.3529411764705881</v>
+        <v>0.3360528628297332</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>s**5</t>
+          <t>s**靖</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>好得很哟值得购买</t>
+          <t>质量挺好的，好评</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>好值得购买</t>
+          <t>质量好，好评</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>值得/购买</t>
+          <t>质量/好评</t>
         </is>
       </c>
       <c r="E449" t="n">
-        <v>0.6721057256594665</v>
+        <v>-0.08145692298279295</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>s**靖</t>
+          <t>霞**6</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>质量挺好的，好评</t>
+          <t>实物很好，客服态度也很好。</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>质量好，好评</t>
+          <t>实物好，客服态度也好</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>质量/好评</t>
+          <t>实物/客服/态度/也好</t>
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-0.1629138459655859</v>
+        <v>-0.4029981495049896</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>霞**6</t>
+          <t>樊**q</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>实物很好，客服态度也很好。</t>
+          <t>给妈妈买的，回来就用上了，很不错</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>实物好，客服态度也好</t>
+          <t>给妈妈买，回来就用，不错</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>实物/客服/态度/也好</t>
+          <t>妈妈/回来/不错</t>
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-0.8059962990099792</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>樊**q</t>
+          <t>k**b</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>给妈妈买的，回来就用上了，很不错</t>
+          <t>很好用，解决了大问题。</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>给妈妈买，回来就用，不错</t>
+          <t>好用，解决问题</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>妈妈/回来/不错</t>
+          <t>好用/解决问题</t>
         </is>
       </c>
       <c r="E452" t="n">
-        <v>0.926060859516433</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>k**b</t>
+          <t>z**9</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>很好用，解决了大问题。</t>
+          <t>不错，很扎实。</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>好用，解决问题</t>
+          <t>不错，扎实</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>好用/解决问题</t>
+          <t>不错/扎实</t>
         </is>
       </c>
       <c r="E453" t="n">
-        <v>0.01519947556180545</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>z**9</t>
+          <t>翎**1</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>不错，很扎实。</t>
+          <t>非常好，奶奶很喜欢，发货也很快，感谢🙏</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>不错，扎实</t>
+          <t>好，奶奶喜欢，发货快，感谢</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>不错/扎实</t>
+          <t>奶奶/喜欢/发货/感谢</t>
         </is>
       </c>
       <c r="E454" t="n">
-        <v>0.9689031118443503</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>翎**1</t>
+          <t>t**6</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>非常好，奶奶很喜欢，发货也很快，感谢🙏</t>
+          <t>稳定好用</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>好，奶奶喜欢，发货快，感谢</t>
+          <t>稳定好用</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>奶奶/喜欢/发货/感谢</t>
+          <t>稳定/好用</t>
         </is>
       </c>
       <c r="E455" t="n">
-        <v>0.7305037975764999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t**6</t>
+          <t>樱**冬</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>稳定好用</t>
+          <t>送货非常快，解决了燃眉之急！客服小雨很👍</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>稳定好用</t>
+          <t>送货快，解决燃眉之急，客服小雨</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>稳定/好用</t>
+          <t>送货/解决/燃眉之急/客服/小雨</t>
         </is>
       </c>
       <c r="E456" t="n">
-        <v>0.6376606580505513</v>
+        <v>-0.4247961720536226</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>樱**冬</t>
+          <t>杨**8</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>送货非常快，解决了燃眉之急！客服小雨很👍</t>
+          <t>东西很好用，就是有点重。为商家点赞。</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>送货快，解决燃眉之急，客服小雨</t>
+          <t>东西好用，有点重，商家点赞</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>送货/解决/燃眉之急/客服/小雨</t>
+          <t>东西/好用/有点/商家/点赞</t>
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-0.8495923441072453</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>杨**8</t>
+          <t>z**0</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>东西很好用，就是有点重。为商家点赞。</t>
+          <t>老人骨水泥术后恢复期，早买就好了。老人生活更有尊严。</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>东西好用，有点重，商家点赞</t>
+          <t>老人骨水泥术后恢复期，早买就好，老人生活更尊严</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>东西/好用/有点/商家/点赞</t>
+          <t>老人/水泥/术后/恢复期/早买/老人/生活/尊严</t>
         </is>
       </c>
       <c r="E458" t="n">
-        <v>0.1913604379293337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>z**0</t>
+          <t>记**5</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>老人骨水泥术后恢复期，早买就好了。老人生活更有尊严。</t>
+          <t>超级方便好用</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>老人骨水泥术后恢复期，早买就好，老人生活更尊严</t>
+          <t>超级方便好用</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>老人/水泥/术后/恢复期/早买/老人/生活/尊严</t>
+          <t>超级/方便/好用</t>
         </is>
       </c>
       <c r="E459" t="n">
-        <v>0.9606014014774873</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>记**5</t>
+          <t>a**p</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>超级方便好用</t>
+          <t>不错，方便</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>超级方便好用</t>
+          <t>不错，方便</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>超级/方便/好用</t>
+          <t>不错/方便</t>
         </is>
       </c>
       <c r="E460" t="n">
-        <v>0.1607748971661533</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>a**p</t>
+          <t>a**0</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>不错，方便</t>
+          <t>质量好，性价比高。</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>不错，方便</t>
+          <t>质量好，性价比高</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>不错/方便</t>
+          <t>质量/性价比</t>
         </is>
       </c>
       <c r="E461" t="n">
-        <v>0.7224264705882353</v>
+        <v>0.4122729338590448</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>a**0</t>
+          <t>蓝**童</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>质量好，性价比高。</t>
+          <t>老年人卧床久了，对恢复行走很有帮助，质量很好，牢固。</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>质量好，性价比高</t>
+          <t>老年人卧床久，恢复行走帮助，质量好，牢固</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>质量/性价比</t>
+          <t>老年人/卧床/恢复/行走/帮助/质量/牢固</t>
         </is>
       </c>
       <c r="E462" t="n">
-        <v>0.8245458677180897</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>蓝**童</t>
+          <t>t**2</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>老年人卧床久了，对恢复行走很有帮助，质量很好，牢固。</t>
+          <t>质量不错，可折叠，不用的时候不占地方，非常满意</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>老年人卧床久，恢复行走帮助，质量好，牢固</t>
+          <t>质量不错，可折叠，不用不占地方，满意</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>老年人/卧床/恢复/行走/帮助/质量/牢固</t>
+          <t>质量/不错/可折叠/不用/地方/满意</t>
         </is>
       </c>
       <c r="E463" t="n">
-        <v>0.2306870221600632</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t**2</t>
+          <t>t**7</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>质量不错，可折叠，不用的时候不占地方，非常满意</t>
+          <t>老人用着非常好</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>质量不错，可折叠，不用不占地方，满意</t>
+          <t>老人用好</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>质量/不错/可折叠/不用/地方/满意</t>
+          <t>老人</t>
         </is>
       </c>
       <c r="E464" t="n">
-        <v>0.7799286220088173</v>
+        <v>0.09259259259259223</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t**7</t>
+          <t>k**3</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>老人用着非常好</t>
+          <t>挺好的，老人满意👍再精细些就更好了</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>老人用好</t>
+          <t>好，老人满意精细就更好</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>老人</t>
+          <t>老人/满意/精细/更好</t>
         </is>
       </c>
       <c r="E465" t="n">
-        <v>0.1851851851851845</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>k**3</t>
+          <t>p**y</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>挺好的，老人满意👍再精细些就更好了</t>
+          <t>挺牢固的，折叠调整都很简单。拿起来也不是很重。</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>好，老人满意精细就更好</t>
+          <t>牢固，折叠调整简单，起来不是重</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>老人/满意/精细/更好</t>
+          <t>牢固/折叠/调整/简单/起来/不是</t>
         </is>
       </c>
       <c r="E466" t="n">
-        <v>0.9621862450091543</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>p**y</t>
+          <t>l**0</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>挺牢固的，折叠调整都很简单。拿起来也不是很重。</t>
+          <t>质量很好，而且上午买的，傍晚就收到货了。</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>牢固，折叠调整简单，起来不是重</t>
+          <t>质量好，上午买，傍晚就收到货</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>牢固/折叠/调整/简单/起来/不是</t>
+          <t>质量/上午/傍晚/收到</t>
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-0.7853096068245757</v>
+        <v>0.2507497282052989</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>l**0</t>
+          <t>l**7</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>质量很好，而且上午买的，傍晚就收到货了。</t>
+          <t>助力器收到了，很好用。质量很好。点赞了！</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>质量好，上午买，傍晚就收到货</t>
+          <t>助力器收到，好用，质量好，点赞</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>质量/上午/傍晚/收到</t>
+          <t>助力器/收到/好用/质量/点赞</t>
         </is>
       </c>
       <c r="E468" t="n">
-        <v>0.5014994564105979</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>l**7</t>
+          <t>a**h</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>助力器收到了，很好用。质量很好。点赞了！</t>
+          <t>东西不错，下次还会再来光顾！！！</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>助力器收到，好用，质量好，点赞</t>
+          <t>东西不错，下次还会光顾</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>助力器/收到/好用/质量/点赞</t>
+          <t>东西/不错/下次/还会/光顾</t>
         </is>
       </c>
       <c r="E469" t="n">
-        <v>0.4153909474998805</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>a**h</t>
+          <t>t**2</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>东西不错，下次还会再来光顾！！！</t>
+          <t>(*^__^*)非常满意的一次购物，物有所值，比实体店里实惠多了！</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>东西不错，下次还会光顾</t>
+          <t>满意一次购物，物有所值，实体店里实惠</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>东西/不错/下次/还会/光顾</t>
+          <t>满意/一次/购物/物有所值/实体/店里/实惠</t>
         </is>
       </c>
       <c r="E470" t="n">
-        <v>0.8427249300617783</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t**2</t>
+          <t>a**q</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>(*^__^*)非常满意的一次购物，物有所值，比实体店里实惠多了！</t>
+          <t>给奶奶买的，比店里200多的敦实多了，还能调节高低，特别稳当。</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>满意一次购物，物有所值，实体店里实惠</t>
+          <t>给奶奶买，店里200敦实，能调节高低，稳当</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>满意/一次/购物/物有所值/实体/店里/实惠</t>
+          <t>奶奶/店里/200/敦实/调节/高低/稳当</t>
         </is>
       </c>
       <c r="E471" t="n">
-        <v>0.9933371273998925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>a**q</t>
+          <t>一**2</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>给奶奶买的，比店里200多的敦实多了，还能调节高低，特别稳当。</t>
+          <t>助行器很好。</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>给奶奶买，店里200敦实，能调节高低，稳当</t>
+          <t>助行器好</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>奶奶/店里/200/敦实/调节/高低/稳当</t>
+          <t>助行器</t>
         </is>
       </c>
       <c r="E472" t="n">
-        <v>-0.8632305617514471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>一**2</t>
+          <t>t**0</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>助行器很好。</t>
+          <t>非常好，服务态度好，东西质量很好，满意！</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>助行器好</t>
+          <t>好，服务态度好，东西质量好，满意</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>助行器</t>
+          <t>服务态度/东西/质量/满意</t>
         </is>
       </c>
       <c r="E473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t**0</t>
+          <t>神**o</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>非常好，服务态度好，东西质量很好，满意！</t>
+          <t>还是没有轮的好用</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>好，服务态度好，东西质量好，满意</t>
+          <t>没有轮好用</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>服务态度/东西/质量/满意</t>
+          <t>没有/轮好</t>
         </is>
       </c>
       <c r="E474" t="n">
-        <v>0.1499281497831075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>神**o</t>
+          <t>d**w</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>还是没有轮的好用</t>
+          <t>不错，好用</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>没有轮好用</t>
+          <t>不错，好用</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>没有/轮好</t>
+          <t>不错/好用</t>
         </is>
       </c>
       <c r="E475" t="n">
-        <v>0.4403576620653893</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>d**w</t>
+          <t>y**1</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>不错，好用</t>
+          <t>老人用不错</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>不错，好用</t>
+          <t>老人用不错</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>不错/好用</t>
+          <t>老人/不错</t>
         </is>
       </c>
       <c r="E476" t="n">
-        <v>0.8282833762530981</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>y**1</t>
+          <t>我**笑</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>老人用不错</t>
+          <t>很好，非常好，给力好评！</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>老人用不错</t>
+          <t>好，好，给力好评</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>老人/不错</t>
+          <t>给力/好评</t>
         </is>
       </c>
       <c r="E477" t="n">
-        <v>0.7808460384475626</v>
+        <v>-0.07999455728003846</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>我**笑</t>
+          <t>田**屋</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>很好，非常好，给力好评！</t>
+          <t>好用 方便 厚实</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>好，好，给力好评</t>
+          <t>好用 方便 厚实</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>给力/好评</t>
+          <t>好用/方便/厚实</t>
         </is>
       </c>
       <c r="E478" t="n">
-        <v>-0.1599891145600769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>田**屋</t>
+          <t>静**境</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>好用 方便 厚实</t>
+          <t>輕便又穩當，給老頭康復練步的</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>好用 方便 厚实</t>
+          <t>輕便穩當，給老頭康復練步</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>好用/方便/厚实</t>
+          <t>輕便/穩當/給老頭康/練步</t>
         </is>
       </c>
       <c r="E479" t="n">
-        <v>0.49541677660799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>静**境</t>
+          <t>十**恩</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>輕便又穩當，給老頭康復練步的</t>
+          <t>货一到就打开试了 老人说很不错 满意</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>輕便穩當，給老頭康復練步</t>
+          <t>货一到就打开试 老人说不错 满意</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>輕便/穩當/給老頭康/練步</t>
+          <t>货一到/打开/老人/不错/满意</t>
         </is>
       </c>
       <c r="E480" t="n">
-        <v>-0.6316835979985844</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>十**恩</t>
+          <t>q**5</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>货一到就打开试了 老人说很不错 满意</t>
+          <t>发货  物流速度都很快</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>货一到就打开试 老人说不错 满意</t>
+          <t>发货 物流速度快</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>货一到/打开/老人/不错/满意</t>
+          <t>发货/物流/速度</t>
         </is>
       </c>
       <c r="E481" t="n">
-        <v>0.5807004347310118</v>
+        <v>0.245659209409209</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>q**5</t>
+          <t>t**8</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>发货  物流速度都很快</t>
+          <t>很好，很扎实。</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>发货 物流速度快</t>
+          <t>好，扎实</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>发货/物流/速度</t>
+          <t>扎实</t>
         </is>
       </c>
       <c r="E482" t="n">
-        <v>0.4913184188184181</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
@@ -12489,596 +12493,596 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>很好，很扎实。</t>
+          <t>用着不错的</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>好，扎实</t>
+          <t>用不错</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>扎实</t>
+          <t>不错</t>
         </is>
       </c>
       <c r="E483" t="n">
-        <v>0.8378378378378379</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t**8</t>
+          <t>z**蓝</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>用着不错的</t>
+          <t>没有用，看着不错。</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>用不错</t>
+          <t>没有用，看着不错</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>不错</t>
+          <t>没有/看着/不错</t>
         </is>
       </c>
       <c r="E484" t="n">
-        <v>0.7224264705882353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>z**蓝</t>
+          <t>顾**人</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>没有用，看着不错。</t>
+          <t>挺好的，老人锻炼走路，很好用</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>没有用，看着不错</t>
+          <t>好，老人锻炼走路，好用</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>没有/看着/不错</t>
+          <t>老人/锻炼/走路/好用</t>
         </is>
       </c>
       <c r="E485" t="n">
-        <v>0.7767211741928908</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>顾**人</t>
+          <t>t**6</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>挺好的，老人锻炼走路，很好用</t>
+          <t>非常好用，家人都说买的好</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>好，老人锻炼走路，好用</t>
+          <t>好用，家人说买好</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>老人/锻炼/走路/好用</t>
+          <t>好用/家人/买好</t>
         </is>
       </c>
       <c r="E486" t="n">
-        <v>0.6006308321392879</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t**6</t>
+          <t>z**n</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>非常好用，家人都说买的好</t>
+          <t>现在看看质量是不错的</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>好用，家人说买好</t>
+          <t>现在看看质量是不错</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>好用/家人/买好</t>
+          <t>现在/看看/质量/不错</t>
         </is>
       </c>
       <c r="E487" t="n">
-        <v>0.6672959800285387</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>z**n</t>
+          <t>t**4</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>现在看看质量是不错的</t>
+          <t>好，非常稳固，好用，再也不担心摔跤了</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>现在看看质量是不错</t>
+          <t>好，稳固，好用，再也不担心摔跤</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>现在/看看/质量/不错</t>
+          <t>稳固/好用/再也/担心/摔跤</t>
         </is>
       </c>
       <c r="E488" t="n">
-        <v>0.6948044319056144</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t**4</t>
+          <t>c**2</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>好，非常稳固，好用，再也不担心摔跤了</t>
+          <t>近来骨折，必须用拐，发现助行器比拐要稳定，非常合适。</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>好，稳固，好用，再也不担心摔跤</t>
+          <t>近来骨折，必须用拐，发现助行器拐稳定，合适</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>稳固/好用/再也/担心/摔跤</t>
+          <t>近来/骨折/必须/发现/助行器/稳定/合适</t>
         </is>
       </c>
       <c r="E489" t="n">
-        <v>-0.05086505774225647</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>c**2</t>
+          <t>刘**o</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>近来骨折，必须用拐，发现助行器比拐要稳定，非常合适。</t>
+          <t>好用，方便</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>近来骨折，必须用拐，发现助行器拐稳定，合适</t>
+          <t>好用，方便</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>近来/骨折/必须/发现/助行器/稳定/合适</t>
+          <t>好用/方便</t>
         </is>
       </c>
       <c r="E490" t="n">
-        <v>0.4794983877545431</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>刘**o</t>
+          <t>唐**6</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>好用，方便</t>
+          <t>的确不错值得购买。</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>好用，方便</t>
+          <t>不错值得购买</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>好用/方便</t>
+          <t>不错/值得/购买</t>
         </is>
       </c>
       <c r="E491" t="n">
-        <v>0.3117256417880858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>唐**6</t>
+          <t>x**n</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>的确不错值得购买。</t>
+          <t>非常实用</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>不错值得购买</t>
+          <t>实用</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>不错/值得/购买</t>
+          <t>实用</t>
         </is>
       </c>
       <c r="E492" t="n">
-        <v>0.9321784694954589</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>x**n</t>
+          <t>s**9</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>非常实用</t>
+          <t>好用，结实，轻</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>实用</t>
+          <t>好用，结实，轻</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>实用</t>
+          <t>好用/结实</t>
         </is>
       </c>
       <c r="E493" t="n">
-        <v>0.3529411764705881</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>s**9</t>
+          <t>b**n</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>好用，结实，轻</t>
+          <t>结实，稳当，赞。</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>好用，结实，轻</t>
+          <t>结实，稳当，赞</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>好用/结实</t>
+          <t>结实/稳当</t>
         </is>
       </c>
       <c r="E494" t="n">
-        <v>0.3916799724746101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>b**n</t>
+          <t>c**8</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>结实，稳当，赞。</t>
+          <t>四星评价</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>结实，稳当，赞</t>
+          <t>四星评价</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>结实/稳当</t>
+          <t>四星/评价</t>
         </is>
       </c>
       <c r="E495" t="n">
-        <v>0.09107418761064556</v>
+        <v>-0.2287271658974167</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>c**8</t>
+          <t>t**5</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>四星评价</t>
+          <t>非常满意</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>四星评价</t>
+          <t>满意</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>四星/评价</t>
+          <t>满意</t>
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-0.4574543317948334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t**5</t>
+          <t>t**9</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>非常满意</t>
+          <t>货物收到了，用了一次，老年人用相当可以的，值得购买，各位亲朋可以到这个商家进行购买，物流很快的，小哥哥负责任。</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>满意</t>
+          <t>货物收到，用一次，老年人用相当可以，值得购买，亲朋可以商家进行购买，物流快，哥哥负责</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>满意</t>
+          <t>货物/收到/一次/老年人/相当/可以/值得/购买/亲朋/可以/商家/进行/购买/物流/哥哥/负责</t>
         </is>
       </c>
       <c r="E497" t="n">
-        <v>0.4106939704209327</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t**9</t>
+          <t>t**7</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>货物收到了，用了一次，老年人用相当可以的，值得购买，各位亲朋可以到这个商家进行购买，物流很快的，小哥哥负责任。</t>
+          <t>两个轮子是塑料的，在户外这种轮子不难磨，抗震不太好</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>货物收到，用一次，老年人用相当可以，值得购买，亲朋可以商家进行购买，物流快，哥哥负责</t>
+          <t>两个轮子是塑料，在户外这种轮子不难磨，抗震不太好</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>货物/收到/一次/老年人/相当/可以/值得/购买/亲朋/可以/商家/进行/购买/物流/哥哥/负责</t>
+          <t>两个/轮子/塑料/户外/这种/轮子/不难/抗震/不太好</t>
         </is>
       </c>
       <c r="E498" t="n">
-        <v>0.2882296433481739</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t**7</t>
+          <t>t**3</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>两个轮子是塑料的，在户外这种轮子不难磨，抗震不太好</t>
+          <t>东西很好，我要投诉快递员，骂人，素质太差，行为恶劣，要求必须道歉，否则我就往上投诉</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>两个轮子是塑料，在户外这种轮子不难磨，抗震不太好</t>
+          <t>东西好，我要投诉快递员，骂人，素质太差，行为恶劣，要求必须道歉，就投诉</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>两个/轮子/塑料/户外/这种/轮子/不难/抗震/不太好</t>
+          <t>东西/我要/投诉/快递/骂人/素质/行为恶劣/要求/必须/道歉/投诉</t>
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-0.9817861499525977</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t**3</t>
+          <t>t**5</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>东西很好，我要投诉快递员，骂人，素质太差，行为恶劣，要求必须道歉，否则我就往上投诉</t>
+          <t>真是一分价钱一分货，质量差的狠，一摇三晃那种。不要买他家产品，**商家**坏良心。</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>东西好，我要投诉快递员，骂人，素质太差，行为恶劣，要求必须道歉，就投诉</t>
+          <t>真是一分价钱一分货，质量差狠，一摇三晃那种，不要买他家产品，商家坏良心</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>东西/我要/投诉/快递/骂人/素质/行为恶劣/要求/必须/道歉/投诉</t>
+          <t>真是/一分/价钱/一分货/质量/差狠/一摇三晃/那种/不要/他家/产品/商家/坏良心</t>
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-0.9999985732100245</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t**5</t>
+          <t>a**o</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>真是一分价钱一分货，质量差的狠，一摇三晃那种。不要买他家产品，**商家**坏良心。</t>
+          <t>太贵了有点，我穷买不起啊。本来出意外就花了不少钱。</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>真是一分价钱一分货，质量差狠，一摇三晃那种，不要买他家产品，商家坏良心</t>
+          <t>太贵有点，我穷买不起，本来出意外就花不少钱</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>真是/一分/价钱/一分货/质量/差狠/一摇三晃/那种/不要/他家/产品/商家/坏良心</t>
+          <t>太贵/有点/我穷/买不起/本来/意外/不少</t>
         </is>
       </c>
       <c r="E501" t="n">
-        <v>-0.9998566700506897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>a**o</t>
+          <t>z**s</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>太贵了有点，我穷买不起啊。本来出意外就花了不少钱。</t>
+          <t>一星都不想给，松散的离谱，下面脚管根本就是松散的状态，怎么扶的稳？要不是急用绝对退了，建议有质量追求的别买，到货打开就有划痕了，也不知道搞个泡沫隔一下，垃圾的一批，稍微用力就前倾，容易往前倒，这种不知道过了什么勾八检测的建议都别买，要买就买贵点的。不知道这些好评是不是都是疯了还是将就着用懒得说。</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>太贵有点，我穷买不起，本来出意外就花不少钱</t>
+          <t>一星不想给，松散离谱，下面脚管根本就是松散状态，扶稳，急用绝对退，建议质量追求买，到货打开就划痕，不知道搞个泡沫隔一下，垃圾一批，稍微用力就前倾，容易往前倒，这种不知道勾八检测建议买，买就买贵点，不知道好评是不是是疯就用懒得说</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>太贵/有点/我穷/买不起/本来/意外/不少</t>
+          <t>一星/不想/松散/离谱/下面/脚管/根本就是/松散/状态/扶稳/急用/绝对/建议/质量/追求/到货/打开/划痕/知道/搞个/泡沫/一下/垃圾/一批/稍微/用力/前倾/容易/往前/这种/知道/勾八/检测/建议/贵点/知道/好评/是不是/懒得</t>
         </is>
       </c>
       <c r="E502" t="n">
-        <v>0.08651915181408865</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>z**s</t>
+          <t>l**2</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>一星都不想给，松散的离谱，下面脚管根本就是松散的状态，怎么扶的稳？要不是急用绝对退了，建议有质量追求的别买，到货打开就有划痕了，也不知道搞个泡沫隔一下，垃圾的一批，稍微用力就前倾，容易往前倒，这种不知道过了什么勾八检测的建议都别买，要买就买贵点的。不知道这些好评是不是都是疯了还是将就着用懒得说。</t>
+          <t>脚垫那里，就不能改用静音胶垫。走起来，嗝喋。还比不上小孩的玩具车，几十块都是透明静音轮子了。</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>一星不想给，松散离谱，下面脚管根本就是松散状态，扶稳，急用绝对退，建议质量追求买，到货打开就划痕，不知道搞个泡沫隔一下，垃圾一批，稍微用力就前倾，容易往前倒，这种不知道勾八检测建议买，买就买贵点，不知道好评是不是是疯就用懒得说</t>
+          <t>脚垫，就不能改用静音胶垫，走起来，嗝喋，比不上小孩玩具车，几十块是透明静音轮子</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>一星/不想/松散/离谱/下面/脚管/根本就是/松散/状态/扶稳/急用/绝对/建议/质量/追求/到货/打开/划痕/知道/搞个/泡沫/一下/垃圾/一批/稍微/用力/前倾/容易/往前/这种/知道/勾八/检测/建议/贵点/知道/好评/是不是/懒得</t>
+          <t>脚垫/不能/改用/静音/胶垫/起来/比不上/小孩/玩具车/几十块/透明/静音/轮子</t>
         </is>
       </c>
       <c r="E503" t="n">
-        <v>-0.9997508209017503</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>l**2</t>
+          <t>s**l</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>脚垫那里，就不能改用静音胶垫。走起来，嗝喋。还比不上小孩的玩具车，几十块都是透明静音轮子了。</t>
+          <t>快递很扯淡，一点都不专业</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>脚垫，就不能改用静音胶垫，走起来，嗝喋，比不上小孩玩具车，几十块是透明静音轮子</t>
+          <t>快递扯淡，一点不专业</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>脚垫/不能/改用/静音/胶垫/起来/比不上/小孩/玩具车/几十块/透明/静音/轮子</t>
+          <t>快递/扯淡/一点/专业</t>
         </is>
       </c>
       <c r="E504" t="n">
-        <v>-0.9776445493429908</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>s**l</t>
+          <t>蓝**2</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>快递很扯淡，一点都不专业</t>
+          <t>坐板有点太靠里面，不方便使用。</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>快递扯淡，一点不专业</t>
+          <t>坐板有点太靠里面，不方便使用</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>快递/扯淡/一点/专业</t>
+          <t>坐板/有点/靠里面/方便使用</t>
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-0.8285226100406171</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>蓝**2</t>
+          <t>t**2</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>坐板有点太靠里面，不方便使用。</t>
+          <t>塑料胶味道比较重</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>坐板有点太靠里面，不方便使用</t>
+          <t>塑料胶味道比较重</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>坐板/有点/靠里面/方便使用</t>
+          <t>塑料/味道/比较</t>
         </is>
       </c>
       <c r="E506" t="n">
-        <v>0</v>
+        <v>-0.3280910427317707</v>
       </c>
     </row>
     <row r="507">
@@ -13089,2271 +13093,2246 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>塑料胶味道比较重</t>
+          <t>有一点点不稳</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>塑料胶味道比较重</t>
+          <t>一点点不稳</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>塑料/味道/比较</t>
+          <t>一点点</t>
         </is>
       </c>
       <c r="E507" t="n">
-        <v>-0.6561820854635414</v>
+        <v>0.07352941176470595</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t**2</t>
+          <t>m**v</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>有一点点不稳</t>
+          <t>没有对比没有伤害 还好买的雅德  二手又添一件可孚的 用料真心差</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>一点点不稳</t>
+          <t>没有伤害 还好买雅德 二手添一件可孚 用料真心差</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>一点点</t>
+          <t>没有/伤害/还好/雅德/二手/一件/可孚/用料/真心</t>
         </is>
       </c>
       <c r="E508" t="n">
-        <v>0.1470588235294119</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>m**v</t>
+          <t>t**8</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>没有对比没有伤害 还好买的雅德  二手又添一件可孚的 用料真心差</t>
+          <t>发来时有多处磨损，左手手柄底部还被挤压变形了，还没用两天，推着声音响的给地震样，真是太垃圾了，还牌子呢，质量堪忧</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>没有伤害 还好买雅德 二手添一件可孚 用料真心差</t>
+          <t>发来时有多处磨损，左手手柄底部挤压变形，没用两天，推声音响给地震样，真是太垃圾，牌子，质量堪忧</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>没有/伤害/还好/雅德/二手/一件/可孚/用料/真心</t>
+          <t>发来/时有/多处/磨损/左手/手柄/底部/挤压/变形/没用/两天/声音/地震/真是太/垃圾/牌子/质量/堪忧</t>
         </is>
       </c>
       <c r="E509" t="n">
-        <v>0.9104125338159064</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t**8</t>
+          <t>d**n</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>发来时有多处磨损，左手手柄底部还被挤压变形了，还没用两天，推着声音响的给地震样，真是太垃圾了，还牌子呢，质量堪忧</t>
+          <t>同样是雅德品牌你家的货比我上次买的质量好的多得多</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>发来时有多处磨损，左手手柄底部挤压变形，没用两天，推声音响给地震样，真是太垃圾，牌子，质量堪忧</t>
+          <t>同样是雅德品牌你家货比上次买质量好多得多</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>发来/时有/多处/磨损/左手/手柄/底部/挤压/变形/没用/两天/声音/地震/真是太/垃圾/牌子/质量/堪忧</t>
+          <t>同样/雅德/品牌/你家/货比/上次/质量/多得多</t>
         </is>
       </c>
       <c r="E510" t="n">
-        <v>-0.9999310289548575</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>d**n</t>
+          <t>山**6</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>同样是雅德品牌你家的货比我上次买的质量好的多得多</t>
+          <t>便桶桶把手太过薄小，生怕便后提走时，一下子断了掉一地😂</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>同样是雅德品牌你家货比上次买质量好多得多</t>
+          <t>便桶桶把手太过薄</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>同样/雅德/品牌/你家/货比/上次/质量/多得多</t>
+          <t>便桶/把手/太过</t>
         </is>
       </c>
       <c r="E511" t="n">
-        <v>0.9115509168698097</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>山**6</t>
+          <t>p**风</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>便桶桶把手太过薄小，生怕便后提走时，一下子断了掉一地😂</t>
+          <t>黑色支撑不是铝合金的是碳钢的，偏重。</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>便桶桶把手太过薄</t>
+          <t>黑色支撑不是铝合金是碳钢，偏重</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>便桶/把手/太过</t>
+          <t>黑色/支撑/不是/铝合金/碳钢/偏重</t>
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-0.08131056606216713</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>p**风</t>
+          <t>i**8</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>黑色支撑不是铝合金的是碳钢的，偏重。</t>
+          <t>有点晃，四个脚不都粗</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>黑色支撑不是铝合金是碳钢，偏重</t>
+          <t>有点晃，四个脚不粗</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>黑色/支撑/不是/铝合金/碳钢/偏重</t>
+          <t>有点/四个</t>
         </is>
       </c>
       <c r="E513" t="n">
-        <v>0.5631235345103753</v>
+        <v>0.07827476038338643</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>i**8</t>
+          <t>前**吗</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>有点晃，四个脚不都粗</t>
+          <t>快递到后 四天未派送 期间一直联系商家和快递 办事效率奇低 敷衍 商家说她催快递 实际上人压根没联系 自己给快递打电话才知道快递面单破损 需要商家跟快递联系 还是给快递打了两次电话之后才说的 面单解决了之后还是隔天才到驿站 好不容易到了去取 驿站关门 有取快递的说来三趟了没开门 给长辈买的 具体质量啥样没看到 不清楚</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>有点晃，四个脚不粗</t>
+          <t>快递 四天未派送 期间一直联系商家快递 办事效率奇低 敷衍 商家说催快递 实际上压根没联系 自己给快递打电话知道快递面单破损 需要商家快递联系 给快递两次电话之后说 面单解决之后隔天才驿站 好不容易去取 驿站关门 有取快递三趟没开门 给长辈买 具体质量啥样没看到 不清楚</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>有点/四个</t>
+          <t>快递/四天/派送/期间/一直/联系/商家/快递/办事效率/奇低/敷衍/商家/快递/实际上/压根/联系/自己/快递/打电话/知道/快递/面单/破损/需要/商家/快递/联系/快递/两次/电话/之后/面单/解决/之后/天才/驿站/好不容易/去取/驿站/关门/有取/快递/三趟/开门/长辈/具体/质量/啥样/看到/清楚</t>
         </is>
       </c>
       <c r="E514" t="n">
-        <v>0.1565495207667729</v>
+        <v>-0.2727272727272727</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>前**吗</t>
+          <t>晓**子</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>快递到后 四天未派送 期间一直联系商家和快递 办事效率奇低 敷衍 商家说她催快递 实际上人压根没联系 自己给快递打电话才知道快递面单破损 需要商家跟快递联系 还是给快递打了两次电话之后才说的 面单解决了之后还是隔天才到驿站 好不容易到了去取 驿站关门 有取快递的说来三趟了没开门 给长辈买的 具体质量啥样没看到 不清楚</t>
+          <t>有边脚是歪的</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>快递 四天未派送 期间一直联系商家快递 办事效率奇低 敷衍 商家说催快递 实际上压根没联系 自己给快递打电话知道快递面单破损 需要商家快递联系 给快递两次电话之后说 面单解决之后隔天才驿站 好不容易去取 驿站关门 有取快递三趟没开门 给长辈买 具体质量啥样没看到 不清楚</t>
+          <t>有边脚歪</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>快递/四天/派送/期间/一直/联系/商家/快递/办事效率/奇低/敷衍/商家/快递/实际上/压根/联系/自己/快递/打电话/知道/快递/面单/破损/需要/商家/快递/联系/快递/两次/电话/之后/面单/解决/之后/天才/驿站/好不容易/去取/驿站/关门/有取/快递/三趟/开门/长辈/具体/质量/啥样/看到/清楚</t>
+          <t>有边</t>
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>晓**子</t>
+          <t>l**7</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>有边脚是歪的</t>
+          <t>前行时左右摆动推行比较紧不好用，店家说退回去维修，因急用没退，只能酬和用。这东西还是去实体店买比较好。</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>有边脚歪</t>
+          <t>前行时左右摆动推行比较紧不好用，店家说退回去维修，急用没退，只能酬用，这东西实体店买比较好</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>有边</t>
+          <t>前行/左右/摆动/推行/比较/不好/店家/退回去/维修/急用/没退/只能/酬用/东西/实体店/比较</t>
         </is>
       </c>
       <c r="E516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>l**7</t>
+          <t>矗**9</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>前行时左右摆动推行比较紧不好用，店家说退回去维修，因急用没退，只能酬和用。这东西还是去实体店买比较好。</t>
+          <t>质量挺好就是都有用过的痕迹，划痕磕伤严重，商家给补发了一个架子</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>前行时左右摆动推行比较紧不好用，店家说退回去维修，急用没退，只能酬用，这东西实体店买比较好</t>
+          <t>质量好有用痕迹，划痕磕伤严重，商家给补发一个架子</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>前行/左右/摆动/推行/比较/不好/店家/退回去/维修/急用/没退/只能/酬用/东西/实体店/比较</t>
+          <t>质量/有用/痕迹/划痕/磕伤/严重/商家/补发/一个/架子</t>
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-0.9998063168956364</v>
+        <v>-0.3333333333333333</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>矗**9</t>
+          <t>l**m</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>质量挺好就是都有用过的痕迹，划痕磕伤严重，商家给补发了一个架子</t>
+          <t>差品差，寄出損壞件，不能使用，補件發錯，第二次再補件又寄錯地址。對你們很失望。</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>质量好有用痕迹，划痕磕伤严重，商家给补发一个架子</t>
+          <t>差评</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>质量/有用/痕迹/划痕/磕伤/严重/商家/补发/一个/架子</t>
+          <t>差评</t>
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-0.9961039801609721</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>l**m</t>
+          <t>戴**6</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>差品差，寄出損壞件，不能使用，補件發錯，第二次再補件又寄錯地址。對你們很失望。</t>
+          <t>材质太薄，螺丝还滑丝，简直了</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>差评</t>
+          <t>材质太薄，螺丝滑丝，简直</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>差评</t>
+          <t>材质/太薄/螺丝/滑丝/简直</t>
         </is>
       </c>
       <c r="E519" t="n">
-        <v>-0.8642008593659476</v>
+        <v>-0.3333333333333333</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>戴**6</t>
+          <t>林**瀛</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>材质太薄，螺丝还滑丝，简直了</t>
+          <t>一分钱一分货吧</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>材质太薄，螺丝滑丝，简直</t>
+          <t>一分钱一分货</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>材质/太薄/螺丝/滑丝/简直</t>
+          <t>一分钱/一分货</t>
         </is>
       </c>
       <c r="E520" t="n">
-        <v>-0.8280109338042796</v>
+        <v>-0.4151983995696318</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>林**瀛</t>
+          <t>林**4</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>一分钱一分货吧</t>
+          <t>整体还行，就是坐板，再宽个十厘米就好，太短了，坐板底下给他固定后，像后面点可以抬起来坐板，就坐着很不舒服，换在前面点坐板卡住又抬不起来了。坐下来后，上面第一根横杠会卡着背，很不舒服。用来走路，两边可以，左右摇晃没问题，使用轮子用来推的话，两边就摇摇晃晃，不能固定。</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>一分钱一分货</t>
+          <t>整体行，坐板，宽个十厘米就好，太短，坐板底下给固定，后面点可以抬起坐板，就坐不舒服，换在前面点坐板卡住抬不起来，坐下来后，上面第一根横杠会卡背，不舒服，用来走路，两边可以，左右摇晃没问题，使用轮子用来推，两边就摇摇晃晃，不能固定</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>一分钱/一分货</t>
+          <t>整体/坐板/宽个/十厘米/太短/坐板/底下/固定/后面/可以/抬起/坐板/舒服/前面/坐板/卡住/起来/坐下/来后/上面/第一根/横杠/会卡/舒服/用来/走路/两边/可以/左右/摇晃/问题/使用/轮子/用来/两边/摇摇晃晃/不能/固定</t>
         </is>
       </c>
       <c r="E521" t="n">
-        <v>-0.8303967991392636</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>林**4</t>
+          <t>t**7</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>整体还行，就是坐板，再宽个十厘米就好，太短了，坐板底下给他固定后，像后面点可以抬起来坐板，就坐着很不舒服，换在前面点坐板卡住又抬不起来了。坐下来后，上面第一根横杠会卡着背，很不舒服。用来走路，两边可以，左右摇晃没问题，使用轮子用来推的话，两边就摇摇晃晃，不能固定。</t>
+          <t>质量不好，不稳，有点晃</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>整体行，坐板，宽个十厘米就好，太短，坐板底下给固定，后面点可以抬起坐板，就坐不舒服，换在前面点坐板卡住抬不起来，坐下来后，上面第一根横杠会卡背，不舒服，用来走路，两边可以，左右摇晃没问题，使用轮子用来推，两边就摇摇晃晃，不能固定</t>
+          <t>质量不好，不稳，有点晃</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>整体/坐板/宽个/十厘米/太短/坐板/底下/固定/后面/可以/抬起/坐板/舒服/前面/坐板/卡住/起来/坐下/来后/上面/第一根/横杠/会卡/舒服/用来/走路/两边/可以/左右/摇晃/问题/使用/轮子/用来/两边/摇摇晃晃/不能/固定</t>
+          <t>质量/不好/有点</t>
         </is>
       </c>
       <c r="E522" t="n">
-        <v>-0.9999976959075005</v>
+        <v>-0.2748678282398165</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t**7</t>
+          <t>逸***</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>质量不好，不稳，有点晃</t>
+          <t>铁的，根本不是铝合金，做工也粗糙</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>质量不好，不稳，有点晃</t>
+          <t>铁，根本不是铝合金，做工粗糙</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>质量/不好/有点</t>
+          <t>根本/不是/铝合金/做工/粗糙</t>
         </is>
       </c>
       <c r="E523" t="n">
-        <v>-0.549735656479633</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>逸***</t>
+          <t>z**6</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>铁的，根本不是铝合金，做工也粗糙</t>
+          <t>不好用，很重而且手握的地方很硬，后来买了别家的好用多了。本来打算退的，一忙就忘了超过7天所以算了。</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>铁，根本不是铝合金，做工粗糙</t>
+          <t>不好用，重手握地方硬，后来买别家好用，本来打算退，一忙就忘超过天算了</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>根本/不是/铝合金/做工/粗糙</t>
+          <t>不好/手握/地方/后来/别家/好用/本来/打算/一忙/超过/算了</t>
         </is>
       </c>
       <c r="E524" t="n">
-        <v>0.1538376025130979</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>z**6</t>
+          <t>羽**高</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>不好用，很重而且手握的地方很硬，后来买了别家的好用多了。本来打算退的，一忙就忘了超过7天所以算了。</t>
+          <t>助行器买来老人也没用，不知道好不好用，收到货时有一颗螺丝竟然已经生锈了。</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>不好用，重手握地方硬，后来买别家好用，本来打算退，一忙就忘超过天算了</t>
+          <t>助行器买来老人没用，不知道好不好用，收到货时一颗螺丝竟然已经生锈</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>不好/手握/地方/后来/别家/好用/本来/打算/一忙/超过/算了</t>
+          <t>助行器/买来/老人/没用/知道/好不好/收到/货时/一颗/螺丝/竟然/已经/生锈</t>
         </is>
       </c>
       <c r="E525" t="n">
-        <v>-0.8774134728259562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>羽**高</t>
+          <t>阳**3</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>助行器买来老人也没用，不知道好不好用，收到货时有一颗螺丝竟然已经生锈了。</t>
+          <t>收到外包装盒中间有个破口，拆开有划痕，调到最高档刚好合适，但不稳会晃动，家里有腿骨折病人别人建议买个助行器，可能用处不大。</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>助行器买来老人没用，不知道好不好用，收到货时一颗螺丝竟然已经生锈</t>
+          <t>收到外包装盒中间有个破口，拆开划痕，调到高档刚好合适，不稳会晃动，家里腿骨折病人建议买个助行器，可能用处不</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>助行器/买来/老人/没用/知道/好不好/收到/货时/一颗/螺丝/竟然/已经/生锈</t>
+          <t>收到/包装盒/中间/有个/破口/拆开/划痕/高档/刚好/合适/稳会/晃动/家里/骨折/病人/建议/买个/助行器/可能/用处</t>
         </is>
       </c>
       <c r="E526" t="n">
-        <v>-0.9994053165267636</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>阳**3</t>
+          <t>甜**1</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>收到外包装盒中间有个破口，拆开有划痕，调到最高档刚好合适，但不稳会晃动，家里有腿骨折病人别人建议买个助行器，可能用处不大。</t>
+          <t>你们买的时候一定要问清楚运费险，它们跟我们想的运费险是不一样的，产品不好要是退回去它们只退给你几元的运费，但是退回去的运费要70几元那么这就要你付了，它们只跟你讲有运费险但是不跟你说后面还要你……</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>收到外包装盒中间有个破口，拆开划痕，调到高档刚好合适，不稳会晃动，家里腿骨折病人建议买个助行器，可能用处不</t>
+          <t>买一定问清楚运费险，想运费险是不一样，产品不好退回去只退给几元运费，退回去运费70几元这你付，讲运费险不说后面…</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>收到/包装盒/中间/有个/破口/拆开/划痕/高档/刚好/合适/稳会/晃动/家里/骨折/病人/建议/买个/助行器/可能/用处</t>
+          <t>一定/清楚/运费/运费/险是/一样/产品/不好/退回去/只退/几元/运费/退回去/运费/70/几元/运费/险不说/后面</t>
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-0.9880644864280865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>甜**1</t>
+          <t>文**3</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>你们买的时候一定要问清楚运费险，它们跟我们想的运费险是不一样的，产品不好要是退回去它们只退给你几元的运费，但是退回去的运费要70几元那么这就要你付了，它们只跟你讲有运费险但是不跟你说后面还要你……</t>
+          <t>对商品没想法。卖家么，不能不说说了。售前咨询时说送到医院，写好床号即可，结果放到驿站。要你放驿站我不晓得放到居住小区的驿站，结果放到医院附近的驿站，家人还专门开车过去取了件。已经取件和卖家售前承诺是两回事吧，结果客服早就把我拉黑了。嗯，心虚了，就是这么回事。 我今日完成了5200米海拔的曲登**冰川徒步。我看到了夕照珠穆朗玛峰。开心。</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>买一定问清楚运费险，想运费险是不一样，产品不好退回去只退给几元运费，退回去运费70几元这你付，讲运费险不说后面…</t>
+          <t>商品没想法，卖家，不能不说，售前咨询时说送到医院，写好床号即可，放到驿站，放驿站不晓得放到居住小区驿站，放到医院附近驿站，家人专门开车过去取件，已经取件卖家售前承诺是两回事，客服早就拉黑，心虚，这么回事， 今日完成5200米海拔曲登冰川徒步，看到夕照珠穆朗玛峰，开心</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>一定/清楚/运费/运费/险是/一样/产品/不好/退回去/只退/几元/运费/退回去/运费/70/几元/运费/险不说/后面</t>
+          <t>商品/想法/卖家/不能不/售前/咨询/时说/送到/医院/即可/放到/驿站/驿站/晓得/放到/居住小区/驿站/放到/医院/附近/驿站/家人/专门/开车/过去/取件/已经/取件/卖家/售前/承诺/两回事/客服/早就/拉黑/心虚/这么回事/今日/完成/5200/海拔/曲登/冰川/徒步/看到/夕照/珠穆朗玛峰/开心</t>
         </is>
       </c>
       <c r="E528" t="n">
-        <v>-0.9999966715612614</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>文**3</t>
+          <t>a**h</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>对商品没想法。卖家么，不能不说说了。售前咨询时说送到医院，写好床号即可，结果放到驿站。要你放驿站我不晓得放到居住小区的驿站，结果放到医院附近的驿站，家人还专门开车过去取了件。已经取件和卖家售前承诺是两回事吧，结果客服早就把我拉黑了。嗯，心虚了，就是这么回事。 我今日完成了5200米海拔的曲登**冰川徒步。我看到了夕照珠穆朗玛峰。开心。</t>
+          <t>价格偏高，不够很实用，无需太夸张</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>商品没想法，卖家，不能不说，售前咨询时说送到医院，写好床号即可，放到驿站，放驿站不晓得放到居住小区驿站，放到医院附近驿站，家人专门开车过去取件，已经取件卖家售前承诺是两回事，客服早就拉黑，心虚，这么回事， 今日完成5200米海拔曲登冰川徒步，看到夕照珠穆朗玛峰，开心</t>
+          <t>价格偏高，不够实用，无需太夸张</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>商品/想法/卖家/不能不/售前/咨询/时说/送到/医院/即可/放到/驿站/驿站/晓得/放到/居住小区/驿站/放到/医院/附近/驿站/家人/专门/开车/过去/取件/已经/取件/卖家/售前/承诺/两回事/客服/早就/拉黑/心虚/这么回事/今日/完成/5200/海拔/曲登/冰川/徒步/看到/夕照/珠穆朗玛峰/开心</t>
+          <t>价格/偏高/不够/实用/无需/夸张</t>
         </is>
       </c>
       <c r="E529" t="n">
-        <v>-0.997567006683723</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>a**h</t>
+          <t>p**n</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>价格偏高，不够很实用，无需太夸张</t>
+          <t>轻微摇晃，达不到非常稳非常牢固，单脚或双脚撑这扶把会崴。结构不牢固。扶着撑一般吧。</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>价格偏高，不够实用，无需太夸张</t>
+          <t>轻微摇晃，达不到稳牢固，单脚双脚撑这扶会崴，结构不牢固，扶撑一般</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>价格/偏高/不够/实用/无需/夸张</t>
+          <t>轻微/摇晃/不到/牢固/单脚/双脚/扶会/结构/牢固/扶撑/一般</t>
         </is>
       </c>
       <c r="E530" t="n">
-        <v>0.8846051405188164</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>p**n</t>
+          <t>t**5</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>轻微摇晃，达不到非常稳非常牢固，单脚或双脚撑这扶把会崴。结构不牢固。扶着撑一般吧。</t>
+          <t>扶手太硬，按了手痛</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>轻微摇晃，达不到稳牢固，单脚双脚撑这扶会崴，结构不牢固，扶撑一般</t>
+          <t>扶手太硬，手痛</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>轻微/摇晃/不到/牢固/单脚/双脚/扶会/结构/牢固/扶撑/一般</t>
+          <t>扶手/太硬/手痛</t>
         </is>
       </c>
       <c r="E531" t="n">
-        <v>-0.9953496120474188</v>
+        <v>-0.3333333333333333</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t**5</t>
+          <t>有**6</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>扶手太硬，按了手痛</t>
+          <t>刚收到货，用后在评？</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>扶手太硬，手痛</t>
+          <t>刚收到货，用后在评</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>扶手/太硬/手痛</t>
+          <t>收到/用后</t>
         </is>
       </c>
       <c r="E532" t="n">
-        <v>0.1318191514152363</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>有**6</t>
+          <t>t**2</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>刚收到货，用后在评？</t>
+          <t>一般般吧，没有想象那么好</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>刚收到货，用后在评</t>
+          <t>一般般，没有想象好</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>收到/用后</t>
+          <t>一般般/没有/想象</t>
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-0.3572961236285419</v>
+        <v>0.0461942479034545</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t**2</t>
+          <t>z**g</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>一般般吧，没有想象那么好</t>
+          <t>助行器很好 家里腿脚不便的老人很需要 桃仁客服小姐姐服务也很周到</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>一般般，没有想象好</t>
+          <t>助行器好 家里腿脚不便老人需要 桃仁客服小姐姐服务周到</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>一般般/没有/想象</t>
+          <t>助行器/家里/腿脚/不便/老人/需要/桃仁/客服/小姐姐/服务周到</t>
         </is>
       </c>
       <c r="E534" t="n">
-        <v>0.092388495806909</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>z**g</t>
+          <t>t**6</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>助行器很好 家里腿脚不便的老人很需要 桃仁客服小姐姐服务也很周到</t>
+          <t>也就是买了两个，然后家里的老人不方便就多买了几个，建议购买</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>助行器好 家里腿脚不便老人需要 桃仁客服小姐姐服务周到</t>
+          <t>买两个，家里老人不方便就买几个，建议购买</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>助行器/家里/腿脚/不便/老人/需要/桃仁/客服/小姐姐/服务周到</t>
+          <t>两个/家里/老人/方便/几个/建议/购买</t>
         </is>
       </c>
       <c r="E535" t="n">
-        <v>0.9987886401533468</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t**6</t>
+          <t>小**7</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>也就是买了两个，然后家里的老人不方便就多买了几个，建议购买</t>
+          <t>还不错哦，换膝盖给妈妈买用的，医院的比较贵！可以折叠，不占地方</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>买两个，家里老人不方便就买几个，建议购买</t>
+          <t>不错，换膝盖给妈妈买用，医院比较贵，可以折叠，不占地方</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>两个/家里/老人/方便/几个/建议/购买</t>
+          <t>不错/膝盖/妈妈/买用/医院/比较/可以/折叠/地方</t>
         </is>
       </c>
       <c r="E536" t="n">
-        <v>0.4308998690732693</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>小**7</t>
+          <t>葡**8</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>还不错哦，换膝盖给妈妈买用的，医院的比较贵！可以折叠，不占地方</t>
+          <t>宝贝收到了，包装非常严实，物流小哥又是打电话又是发短信提示的，态度非常好，老板店家服务态度也是万分耐心。宝贝材质棒棒哒，很稳当，老人很喜欢。我已把这链接分享给同学群了。想买的亲，可以放心在这店里下单，妥妥的。祝老板生意兴隆!</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>不错，换膝盖给妈妈买用，医院比较贵，可以折叠，不占地方</t>
+          <t>宝贝收到，包装严实，物流小哥是打电话是发短信提示，态度好，老板店家服务态度是万分耐心，宝贝材质棒棒，稳当，老人喜欢，这链接分享给同学群，想买亲，可以放心在这店里下单，妥妥，祝老板生意兴隆!</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>不错/膝盖/妈妈/买用/医院/比较/可以/折叠/地方</t>
+          <t>宝贝/收到/包装/严实/物流/小哥/打电话/发短信/提示/态度/老板/店家/服务态度/万分/耐心/宝贝/材质/棒棒/稳当/老人/喜欢/链接/分享/同学/想买亲/可以/放心/店里/下单/妥妥/老板/生意兴隆</t>
         </is>
       </c>
       <c r="E537" t="n">
-        <v>0.9097248554649284</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>葡**8</t>
+          <t>x**8</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>宝贝收到了，包装非常严实，物流小哥又是打电话又是发短信提示的，态度非常好，老板店家服务态度也是万分耐心。宝贝材质棒棒哒，很稳当，老人很喜欢。我已把这链接分享给同学群了。想买的亲，可以放心在这店里下单，妥妥的。祝老板生意兴隆!</t>
+          <t>发货速度很快，东西包装的很好，价格优惠，我很满意👍，还会回购</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>宝贝收到，包装严实，物流小哥是打电话是发短信提示，态度好，老板店家服务态度是万分耐心，宝贝材质棒棒，稳当，老人喜欢，这链接分享给同学群，想买亲，可以放心在这店里下单，妥妥，祝老板生意兴隆!</t>
+          <t>发货速度快，东西包装好，价格优惠，满意，还会回购</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>宝贝/收到/包装/严实/物流/小哥/打电话/发短信/提示/态度/老板/店家/服务态度/万分/耐心/宝贝/材质/棒棒/稳当/老人/喜欢/链接/分享/同学/想买亲/可以/放心/店里/下单/妥妥/老板/生意兴隆</t>
+          <t>发货/速度/东西/包装/价格/优惠/满意/还会/回购</t>
         </is>
       </c>
       <c r="E538" t="n">
-        <v>0.9998745542321921</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>x**8</t>
+          <t>手**草</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>发货速度很快，东西包装的很好，价格优惠，我很满意👍，还会回购</t>
+          <t>价格实惠，商家发货很快值得购买商家服务很好，质量很好</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>发货速度快，东西包装好，价格优惠，满意，还会回购</t>
+          <t>价格实惠，商家发货快值得购买商家服务好，质量好</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>发货/速度/东西/包装/价格/优惠/满意/还会/回购</t>
+          <t>价格/实惠/商家/发货/值得/购买/商家/服务/质量</t>
         </is>
       </c>
       <c r="E539" t="n">
-        <v>0.3958092562275286</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>手**草</t>
+          <t>l**5</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>价格实惠，商家发货很快值得购买商家服务很好，质量很好</t>
+          <t>很不错，家里的人还是觉得很坚固和喜欢的</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>价格实惠，商家发货快值得购买商家服务好，质量好</t>
+          <t>不错，家里觉得坚固喜欢</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>价格/实惠/商家/发货/值得/购买/商家/服务/质量</t>
+          <t>不错/家里/觉得/坚固/喜欢</t>
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-0.4471259934849594</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>l**5</t>
+          <t>逍**9</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>很不错，家里的人还是觉得很坚固和喜欢的</t>
+          <t>一直在这里买这个，活动的时候价格很美丽，发货速度贼快，质量不错，应该是正品</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>不错，家里觉得坚固喜欢</t>
+          <t>一直在买，活动价格美丽，发货速度贼快，质量不错，应该是正品</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>不错/家里/觉得/坚固/喜欢</t>
+          <t>一直/活动/价格/美丽/发货/速度/质量/不错/应该/正品</t>
         </is>
       </c>
       <c r="E541" t="n">
-        <v>0.9872771130333489</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>逍**9</t>
+          <t>之**基</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>一直在这里买这个，活动的时候价格很美丽，发货速度贼快，质量不错，应该是正品</t>
+          <t>很结实，给姥爷买的，用这个可以试着自己走路，每天出来溜达溜达，晒晒太阳，对身体和心情都好，比较稳当，不用担心会摔。</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>一直在买，活动价格美丽，发货速度贼快，质量不错，应该是正品</t>
+          <t>结实，给姥爷买，用可以试着自己走路，每天溜达，晒晒太阳，身体心情好，比较稳当，不用担心会摔</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>一直/活动/价格/美丽/发货/速度/质量/不错/应该/正品</t>
+          <t>结实/姥爷/可以/试着/自己/走路/每天/溜达/晒太阳/身体/心情/比较/稳当/不用/担心</t>
         </is>
       </c>
       <c r="E542" t="n">
-        <v>0.9982874619786888</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>之**基</t>
+          <t>逍**9</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>很结实，给姥爷买的，用这个可以试着自己走路，每天出来溜达溜达，晒晒太阳，对身体和心情都好，比较稳当，不用担心会摔。</t>
+          <t>很好看，制作工艺很精美，材质也很好！给个赞</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>结实，给姥爷买，用可以试着自己走路，每天溜达，晒晒太阳，身体心情好，比较稳当，不用担心会摔</t>
+          <t>好看，制作工艺精美，材质也好，给赞</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>结实/姥爷/可以/试着/自己/走路/每天/溜达/晒太阳/身体/心情/比较/稳当/不用/担心</t>
+          <t>好看/制作/工艺/精美/材质/也好</t>
         </is>
       </c>
       <c r="E543" t="n">
-        <v>0.9278419199032966</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>逍**9</t>
+          <t>牛**一</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>很好看，制作工艺很精美，材质也很好！给个赞</t>
+          <t>质量非常好的客服态度也很好，客服樱花，服务好，五星好评呢，上几张图</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>好看，制作工艺精美，材质也好，给赞</t>
+          <t>质量好客服态度也好，客服樱花，服务好，五星好评，</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>好看/制作/工艺/精美/材质/也好</t>
+          <t>质量/客服/态度/也好/客服/樱花/服务/五星/好评</t>
         </is>
       </c>
       <c r="E544" t="n">
-        <v>0.9507164252633851</v>
+        <v>-0.4935139142562222</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>牛**一</t>
+          <t>天**爱</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>质量非常好的客服态度也很好，客服樱花，服务好，五星好评呢，上几张图</t>
+          <t>助行器使用方便，简单便捷，五星好评(≧∇≦)发几张图片，</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>质量好客服态度也好，客服樱花，服务好，五星好评，</t>
+          <t>助行器使用方便，简单便捷，五星好评，发几张图片</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>质量/客服/态度/也好/客服/樱花/服务/五星/好评</t>
+          <t>助行器/使用方便/简单/便捷/五星/好评/发几张/图片</t>
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-0.9870278285124443</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>天**爱</t>
+          <t>t**8</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>助行器使用方便，简单便捷，五星好评(≧∇≦)发几张图片，</t>
+          <t>助行器相当不错，给老人买的，老人很满意，感谢客服芍药</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>助行器使用方便，简单便捷，五星好评，发几张图片</t>
+          <t>助行器相当不错，给老人买，老人满意，感谢客服芍药</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>助行器/使用方便/简单/便捷/五星/好评/发几张/图片</t>
+          <t>助行器/相当/不错/老人/老人/满意/感谢/客服/芍药</t>
         </is>
       </c>
       <c r="E546" t="n">
-        <v>0.6482407759103113</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t**8</t>
+          <t>啊**购</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>助行器相当不错，给老人买的，老人很满意，感谢客服芍药</t>
+          <t>产品质量可以，客服回复信息也很快，点赞👍</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>助行器相当不错，给老人买，老人满意，感谢客服芍药</t>
+          <t>产品质量可以，客服回复信息快，点赞</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>助行器/相当/不错/老人/老人/满意/感谢/客服/芍药</t>
+          <t>产品质量/可以/客服/回复/信息/点赞</t>
         </is>
       </c>
       <c r="E547" t="n">
-        <v>0.5031529530076968</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>啊**购</t>
+          <t>梓**8</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>产品质量可以，客服回复信息也很快，点赞👍</t>
+          <t>首先对客服桃仁的服务态度点个赞！第一次在这家店购买给婆婆用的，她收到货非常满意，说有这架子方便多了。</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>产品质量可以，客服回复信息快，点赞</t>
+          <t>客服桃仁服务态度点个赞，第一次在这家店购买给婆婆用，收到货满意，说这架子方便</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>产品质量/可以/客服/回复/信息/点赞</t>
+          <t>客服/桃仁/服务态度/点个/第一次/这家/购买/婆婆/收到/满意/架子/方便</t>
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-0.8367606193017125</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>梓**8</t>
+          <t>t**8</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>首先对客服桃仁的服务态度点个赞！第一次在这家店购买给婆婆用的，她收到货非常满意，说有这架子方便多了。</t>
+          <t>非常好 简单易装 买给爷爷用的 很好走 快递第二天就到了 赞赞</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>客服桃仁服务态度点个赞，第一次在这家店购买给婆婆用，收到货满意，说这架子方便</t>
+          <t>好 简单易装 买给爷爷用 好走 快递第二天就 赞赞</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>客服/桃仁/服务态度/点个/第一次/这家/购买/婆婆/收到/满意/架子/方便</t>
+          <t>简单/易装/爷爷/快递/第二天/赞赞</t>
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-0.2478262863415415</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t**8</t>
+          <t>逍**9</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>非常好 简单易装 买给爷爷用的 很好走 快递第二天就到了 赞赞</t>
+          <t>货真价实，高颜值，高品质，一分钱一分货，材质外观和质量一看就很上档次，非常喜欢，樱花不错</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>好 简单易装 买给爷爷用 好走 快递第二天就 赞赞</t>
+          <t>货真价实，高颜值，高品质，一分钱一分货，材质外观质量一看就上档次，喜欢，樱花不错</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>简单/易装/爷爷/快递/第二天/赞赞</t>
+          <t>货真价实/高颜值/高品质/一分钱/一分货/材质/外观/质量/一看/上档次/喜欢/樱花/不错</t>
         </is>
       </c>
       <c r="E550" t="n">
-        <v>0.9321683797233364</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>逍**9</t>
+          <t>x**5</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>货真价实，高颜值，高品质，一分钱一分货，材质外观和质量一看就很上档次，非常喜欢，樱花不错</t>
+          <t>趁着优惠，赶紧入手，是正品，包装也非常的好，没有破损，质量也是没得说，棒👍</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>货真价实，高颜值，高品质，一分钱一分货，材质外观质量一看就上档次，喜欢，樱花不错</t>
+          <t>优惠，赶紧入手，是正品，包装好，没有破损，质量是没得说，棒</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>货真价实/高颜值/高品质/一分钱/一分货/材质/外观/质量/一看/上档次/喜欢/樱花/不错</t>
+          <t>优惠/赶紧/入手/正品/包装/没有/破损/质量/没得说</t>
         </is>
       </c>
       <c r="E551" t="n">
-        <v>0.9945246220139974</v>
+        <v>-0.3333333333333333</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>x**5</t>
+          <t>拜**己</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>趁着优惠，赶紧入手，是正品，包装也非常的好，没有破损，质量也是没得说，棒👍</t>
+          <t>助行器收到啦质量杠杠的，妈妈用的挺方便的，这样自己能下地锻炼走路，给卖家五星好评。</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>优惠，赶紧入手，是正品，包装好，没有破损，质量是没得说，棒</t>
+          <t>助行器收到质量好，妈妈用方便，自己能下锻炼走路，给卖家五星好评</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>优惠/赶紧/入手/正品/包装/没有/破损/质量/没得说</t>
+          <t>助行器/收到/质量/妈妈/方便/自己/能下/锻炼/走路/卖家/五星/好评</t>
         </is>
       </c>
       <c r="E552" t="n">
-        <v>0.8861110486920025</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>拜**己</t>
+          <t>t**3</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>助行器收到啦质量杠杠的，妈妈用的挺方便的，这样自己能下地锻炼走路，给卖家五星好评。</t>
+          <t>助行器很不错，非常实用，而且很坚固</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>助行器收到质量好，妈妈用方便，自己能下锻炼走路，给卖家五星好评</t>
+          <t>助行器不错，实用，坚固</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>助行器/收到/质量/妈妈/方便/自己/能下/锻炼/走路/卖家/五星/好评</t>
+          <t>助行器/不错/实用/坚固</t>
         </is>
       </c>
       <c r="E553" t="n">
-        <v>0.3458601838143029</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t**3</t>
+          <t>陈**3</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>助行器很不错，非常实用，而且很坚固</t>
+          <t>这个器械好评质量特别好，与卖家描述一致， 发货非常快，包装仔细严密， 店家态度特别好，下次还会回购，再次光顾，发货迅速态度很好，很满意！ 非常好非常满意！！！</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>助行器不错，实用，坚固</t>
+          <t>器械好评质量好，卖家描述一致， 发货快，包装仔细严密， 店家态度好，下次还会回购，再次光顾，发货迅速态度好，满意， 好满意</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>助行器/不错/实用/坚固</t>
+          <t>器械/好评/质量/卖家/描述/一致/发货/包装/仔细/严密/店家/态度/下次/还会/回购/再次/光顾/发货/迅速/态度/满意/满意</t>
         </is>
       </c>
       <c r="E554" t="n">
-        <v>0.9586264773984947</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>陈**3</t>
+          <t>天**爱</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>这个器械好评质量特别好，与卖家描述一致， 发货非常快，包装仔细严密， 店家态度特别好，下次还会回购，再次光顾，发货迅速态度很好，很满意！ 非常好非常满意！！！</t>
+          <t>宝贝收到了，质量不错，五星好评，客服光亮态度好(≧∇≦)宝贝使用非常方便的</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>器械好评质量好，卖家描述一致， 发货快，包装仔细严密， 店家态度好，下次还会回购，再次光顾，发货迅速态度好，满意， 好满意</t>
+          <t>宝贝收到，质量不错，五星好评，客服光亮态度好(≧∇≦)宝贝使用方便</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>器械/好评/质量/卖家/描述/一致/发货/包装/仔细/严密/店家/态度/下次/还会/回购/再次/光顾/发货/迅速/态度/满意/满意</t>
+          <t>宝贝/收到/质量/不错/五星/好评/客服/光亮/态度/宝贝/使用方便</t>
         </is>
       </c>
       <c r="E555" t="n">
-        <v>0.4593737123936006</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>天**爱</t>
+          <t>5**手</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>宝贝收到了，质量不错，五星好评，客服光亮态度好(≧∇≦)宝贝使用非常方便的</t>
+          <t>好用，第二次买了</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>宝贝收到，质量不错，五星好评，客服光亮态度好(≧∇≦)宝贝使用方便</t>
+          <t>好用，第二次买</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>宝贝/收到/质量/不错/五星/好评/客服/光亮/态度/宝贝/使用方便</t>
+          <t>好用/第二次</t>
         </is>
       </c>
       <c r="E556" t="n">
-        <v>0.5944390682600922</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>5**手</t>
+          <t>天**爱</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>好用，第二次买了</t>
+          <t>助行器的质量不错的，客服态度也很好，使用起来是很方便的，然后也比较轻便，不是特别重</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>好用，第二次买</t>
+          <t>助行器质量不错，客服态度也好，用是方便，比较轻便，不是重</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>好用/第二次</t>
+          <t>助行器/质量/不错/客服/态度/也好/方便/比较/轻便/不是</t>
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-0.004562761228602108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>天**爱</t>
+          <t>0**s</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>助行器的质量不错的，客服态度也很好，使用起来是很方便的，然后也比较轻便，不是特别重</t>
+          <t>好评</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>助行器质量不错，客服态度也好，用是方便，比较轻便，不是重</t>
+          <t>好评</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>助行器/质量/不错/客服/态度/也好/方便/比较/轻便/不是</t>
+          <t>好评</t>
         </is>
       </c>
       <c r="E558" t="n">
-        <v>0.3736119703530922</v>
+        <v>-0.05421686746987964</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>0**s</t>
+          <t>l**5</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>好评</t>
+          <t>很不错的，做工精致，坚固耐用，很好的</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>好评</t>
+          <t>不错，做工精致，坚固耐用，好</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>好评</t>
+          <t>不错/做工/精致/坚固耐用</t>
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-0.1084337349397593</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>l**5</t>
+          <t>t**3</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>很不错的，做工精致，坚固耐用，很好的</t>
+          <t>挺不错的，用着很结实，功能性也很齐全，不错不错</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>不错，做工精致，坚固耐用，好</t>
+          <t>挺不错，用结实，功能性齐全，不错</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>不错/做工/精致/坚固耐用</t>
+          <t>挺不错/结实/功能性/齐全/不错</t>
         </is>
       </c>
       <c r="E560" t="n">
-        <v>0.9977657133150286</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t**3</t>
+          <t>g**3</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>挺不错的，用着很结实，功能性也很齐全，不错不错</t>
+          <t>东西适用，质量可以，好评。</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>挺不错，用结实，功能性齐全，不错</t>
+          <t>东西适用，质量可以，好评</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>挺不错/结实/功能性/齐全/不错</t>
+          <t>东西/适用/质量/可以/好评</t>
         </is>
       </c>
       <c r="E561" t="n">
-        <v>0.9996341104139799</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>g**3</t>
+          <t>爱**1</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>东西适用，质量可以，好评。</t>
+          <t>助行器收到了，很好用很结实，使用体验号很好！！！！！</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>东西适用，质量可以，好评</t>
+          <t>助行器收到，好用结实，使用体验号好</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>东西/适用/质量/可以/好评</t>
+          <t>助行器/收到/好用/结实/使用/体验</t>
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-0.158380620518678</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>爱**1</t>
+          <t>x**r</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>助行器收到了，很好用很结实，使用体验号很好！！！！！</t>
+          <t>助行器买给家里老人用的，特别轻巧方便，老人很喜欢，解决了老人行走的问题，感谢商家！</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>助行器收到，好用结实，使用体验号好</t>
+          <t>助行器买给家里老人用，轻巧方便，老人喜欢，解决老人行走问题，感谢商家</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>助行器/收到/好用/结实/使用/体验</t>
+          <t>助行器/家里/老人/轻巧方便/老人/喜欢/解决/老人/行走/问题/感谢/商家</t>
         </is>
       </c>
       <c r="E563" t="n">
-        <v>0.2932878451678824</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>x**r</t>
+          <t>奶**～</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>助行器买给家里老人用的，特别轻巧方便，老人很喜欢，解决了老人行走的问题，感谢商家！</t>
+          <t>物流很快  樱花客服也很满意  使用过后还会再来的</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>助行器买给家里老人用，轻巧方便，老人喜欢，解决老人行走问题，感谢商家</t>
+          <t>物流快 樱花客服满意 使用过后还会</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>助行器/家里/老人/轻巧方便/老人/喜欢/解决/老人/行走/问题/感谢/商家</t>
+          <t>物流/樱花/客服/满意/使用/过后/还会</t>
         </is>
       </c>
       <c r="E564" t="n">
-        <v>0.9956273257177213</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>奶**～</t>
+          <t>萌**蕾</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>物流很快  樱花客服也很满意  使用过后还会再来的</t>
+          <t>看起来还不错，客服半夏态度挺好的，满意的一次购物</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>物流快 樱花客服满意 使用过后还会</t>
+          <t>看起来不错，客服半夏态度好，满意一次购物</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>物流/樱花/客服/满意/使用/过后/还会</t>
+          <t>看起来/不错/客服/半夏/态度/满意/一次/购物</t>
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-0.01029997249477255</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>萌**蕾</t>
+          <t>2**a</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>看起来还不错，客服半夏态度挺好的，满意的一次购物</t>
+          <t>可以的，买来给家里面的训练走路，还是比较实用的，赞</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>看起来不错，客服半夏态度好，满意一次购物</t>
+          <t>可以，买来给家里面训练走路，比较实用，赞</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>看起来/不错/客服/半夏/态度/满意/一次/购物</t>
+          <t>可以/买来/给家/里面/训练/走路/比较/实用</t>
         </is>
       </c>
       <c r="E566" t="n">
-        <v>0.3121558252261492</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>2**a</t>
+          <t>t**9</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>可以的，买来给家里面的训练走路，还是比较实用的，赞</t>
+          <t>质量很好安装简单用着走路稳稳的不会摔倒值得购买</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>可以，买来给家里面训练走路，比较实用，赞</t>
+          <t>质量好安装简单用走路稳稳不会摔倒值得购买</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>可以/买来/给家/里面/训练/走路/比较/实用</t>
+          <t>质量/安装简单/走路/稳稳/不会/摔倒/值得/购买</t>
         </is>
       </c>
       <c r="E567" t="n">
-        <v>0.8695407194633227</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t**9</t>
+          <t>l**5</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>质量很好安装简单用着走路稳稳的不会摔倒值得购买</t>
+          <t>不错的，质量杠杠的，而且家里比较喜欢</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>质量好安装简单用走路稳稳不会摔倒值得购买</t>
+          <t>不错，质量好，家里比较喜欢</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>质量/安装简单/走路/稳稳/不会/摔倒/值得/购买</t>
+          <t>不错/质量/家里/比较/喜欢</t>
         </is>
       </c>
       <c r="E568" t="n">
-        <v>0.2970718461294526</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>l**5</t>
+          <t>南**沙</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>不错的，质量杠杠的，而且家里比较喜欢</t>
+          <t>东西是高强度铝材，设计合理。老人很喜欢，邻居都问哪买的，确实不错。客服态度很好耐心解答。</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>不错，质量好，家里比较喜欢</t>
+          <t>东西是高强度铝材，设计合理，老人喜欢，邻居问买，不错，客服态度好耐心解答</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>不错/质量/家里/比较/喜欢</t>
+          <t>东西/高强度/铝材/设计/合理/老人/喜欢/邻居/问买/不错/客服/态度/耐心/解答</t>
         </is>
       </c>
       <c r="E569" t="n">
-        <v>0.9376020654680315</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>南**沙</t>
+          <t>t**5</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>东西是高强度铝材，设计合理。老人很喜欢，邻居都问哪买的，确实不错。客服态度很好耐心解答。</t>
+          <t>质量看着很结实，用着也是比较方便，整体感觉不错</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>东西是高强度铝材，设计合理，老人喜欢，邻居问买，不错，客服态度好耐心解答</t>
+          <t>质量看着结实，用是比较方便，整体感觉不错</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>东西/高强度/铝材/设计/合理/老人/喜欢/邻居/问买/不错/客服/态度/耐心/解答</t>
+          <t>质量/看着/结实/比较/方便/整体/感觉/不错</t>
         </is>
       </c>
       <c r="E570" t="n">
-        <v>0.9424432466632988</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t**5</t>
+          <t>无**8</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>质量看着很结实，用着也是比较方便，整体感觉不错</t>
+          <t>收纳方便，做工精细</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>质量看着结实，用是比较方便，整体感觉不错</t>
+          <t>收纳方便，做工精细</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>质量/看着/结实/比较/方便/整体/感觉/不错</t>
+          <t>收纳/方便/做工/精细</t>
         </is>
       </c>
       <c r="E571" t="n">
-        <v>0.9228060389690127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>无**8</t>
+          <t>t**5</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>收纳方便，做工精细</t>
+          <t>相当不错呃呃呃，坚固耐用，做工精细</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>收纳方便，做工精细</t>
+          <t>相当不错，坚固耐用，做工精细</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>收纳/方便/做工/精细</t>
+          <t>相当/不错/坚固耐用/做工/精细</t>
         </is>
       </c>
       <c r="E572" t="n">
-        <v>0.9926395838774345</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t**5</t>
+          <t>我**z</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>相当不错呃呃呃，坚固耐用，做工精细</t>
+          <t>宝贝收到了，质量使用非常方便，客服百合态度很好，使用非常方便的！</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>相当不错，坚固耐用，做工精细</t>
+          <t>宝贝收到，质量使用方便，客服百合态度好，使用方便</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>相当/不错/坚固耐用/做工/精细</t>
+          <t>宝贝/收到/质量/使用方便/客服/百合/态度/使用方便</t>
         </is>
       </c>
       <c r="E573" t="n">
-        <v>0.9982959970009413</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>我**z</t>
+          <t>x**1</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>宝贝收到了，质量使用非常方便，客服百合态度很好，使用非常方便的！</t>
+          <t>尺寸刚刚好，质量也非常好，店家的包装太用心了，值得推荐！</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>宝贝收到，质量使用方便，客服百合态度好，使用方便</t>
+          <t>尺寸刚刚好，质量也好，店家包装太用心，值得推荐</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>宝贝/收到/质量/使用方便/客服/百合/态度/使用方便</t>
+          <t>尺寸/刚刚/质量/也好/店家/包装/用心/值得/推荐</t>
         </is>
       </c>
       <c r="E574" t="n">
-        <v>-0.8250168966608011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>x**1</t>
+          <t>牛**统</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>尺寸刚刚好，质量也非常好，店家的包装太用心了，值得推荐！</t>
+          <t>助行器质量不错，使用很方便，客服态度好，上几张图片！</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>尺寸刚刚好，质量也好，店家包装太用心，值得推荐</t>
+          <t>助行器质量不错，使用方便，客服态度好，几张图片</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>尺寸/刚刚/质量/也好/店家/包装/用心/值得/推荐</t>
+          <t>助行器/质量/不错/使用方便/客服/态度/几张/图片</t>
         </is>
       </c>
       <c r="E575" t="n">
-        <v>0.8910148209554005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>牛**统</t>
+          <t>站**3</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>助行器质量不错，使用很方便，客服态度好，上几张图片！</t>
+          <t>不错。可以下手。</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>助行器质量不错，使用方便，客服态度好，几张图片</t>
+          <t>不错，可以下手</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>助行器/质量/不错/使用方便/客服/态度/几张/图片</t>
+          <t>不错/可以/下手</t>
         </is>
       </c>
       <c r="E576" t="n">
-        <v>-0.7263165697115272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>站**3</t>
+          <t>错**的</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>不错。可以下手。</t>
+          <t>好用，发货及时，收到马上就能用了，小亮客服很好，处理问题及时，表扬</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>不错，可以下手</t>
+          <t>好用，发货及时，收到马上就能用，小亮客服好，处理问题及时，表扬</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>不错/可以/下手</t>
+          <t>好用/发货/及时/收到/马上/小亮/客服/处理/问题/及时/表扬</t>
         </is>
       </c>
       <c r="E577" t="n">
-        <v>0.8357054177020178</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>错**的</t>
+          <t>x**8</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>好用，发货及时，收到马上就能用了，小亮客服很好，处理问题及时，表扬</t>
+          <t>宝贝收到后很满意，外形颜色也很喜欢，挑选好多家，果然没看错，希望把好物分享给大家</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>好用，发货及时，收到马上就能用，小亮客服好，处理问题及时，表扬</t>
+          <t>宝贝收到满意，外形颜色喜欢，挑选好多家，没看错，希望好物分享给</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>好用/发货/及时/收到/马上/小亮/客服/处理/问题/及时/表扬</t>
+          <t>宝贝/收到/满意/外形/颜色/喜欢/挑选/多家/没看/希望/好物/分享</t>
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-0.6328455490462002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>x**8</t>
+          <t>啸**5</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>宝贝收到后很满意，外形颜色也很喜欢，挑选好多家，果然没看错，希望把好物分享给大家</t>
+          <t>很不错👍  奶奶已经在用了！ 客服樱花态度很好，用心讲解</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>宝贝收到满意，外形颜色喜欢，挑选好多家，没看错，希望好物分享给</t>
+          <t>不错 奶奶已经在用， 客服樱花态度好，用心讲解</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>宝贝/收到/满意/外形/颜色/喜欢/挑选/多家/没看/希望/好物/分享</t>
+          <t>不错/奶奶/已经/客服/樱花/态度/用心/讲解</t>
         </is>
       </c>
       <c r="E579" t="n">
-        <v>0.9960488991388372</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>啸**5</t>
+          <t>a**2</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>很不错👍  奶奶已经在用了！ 客服樱花态度很好，用心讲解</t>
+          <t>东西质量很好，看起来也很坚实，价钱也不贵，老人腿脚不方便的用起来很方便，物有超值，推荐给大家。</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>不错 奶奶已经在用， 客服樱花态度好，用心讲解</t>
+          <t>东西质量好，看起来坚实，价钱不贵，老人腿脚不方便用方便，物有超值，推荐给</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>不错/奶奶/已经/客服/樱花/态度/用心/讲解</t>
+          <t>东西/质量/看起来/坚实/价钱/老人/腿脚/方便/方便/物有/超值/推荐</t>
         </is>
       </c>
       <c r="E580" t="n">
-        <v>0.9765575906001518</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>a**2</t>
+          <t>天**爱</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>东西质量很好，看起来也很坚实，价钱也不贵，老人腿脚不方便的用起来很方便，物有超值，推荐给大家。</t>
+          <t>宝贝已收到，来签收了嗯，不错的使用方便简单便捷</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>东西质量好，看起来坚实，价钱不贵，老人腿脚不方便用方便，物有超值，推荐给</t>
+          <t>宝贝收到，签收，不错使用方便简单便捷</t>
         </is>
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>东西/质量/看起来/坚实/价钱/老人/腿脚/方便/方便/物有/超值/推荐</t>
+          <t>宝贝/收到/签收/不错/使用方便/简单/便捷</t>
         </is>
       </c>
       <c r="E581" t="n">
-        <v>0.9969994140491163</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>天**爱</t>
+          <t>a**g</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>宝贝已收到，来签收了嗯，不错的使用方便简单便捷</t>
+          <t>宝贝收到了，质量挺好的，使用起来很方便，值得推荐</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>宝贝收到，签收，不错使用方便简单便捷</t>
+          <t>宝贝收到，质量好，用方便，值得推荐</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>宝贝/收到/签收/不错/使用方便/简单/便捷</t>
+          <t>宝贝/收到/质量/方便/值得/推荐</t>
         </is>
       </c>
       <c r="E582" t="n">
-        <v>0.9176070860509069</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>a**g</t>
+          <t>t**3</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>宝贝收到了，质量挺好的，使用起来很方便，值得推荐</t>
+          <t>产品不错，客服百合也很不错</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>宝贝收到，质量好，用方便，值得推荐</t>
+          <t>产品不错，客服百合不错</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>宝贝/收到/质量/方便/值得/推荐</t>
+          <t>产品/不错/客服/百合/不错</t>
         </is>
       </c>
       <c r="E583" t="n">
-        <v>0.7879090823084212</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t**3</t>
+          <t>x**8</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>产品不错，客服百合也很不错</t>
+          <t>宝贝特别喜欢，颜值高质量好，中看又中用，有需要的朋友不要犹豫了，最后祝商家生意兴隆！</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>产品不错，客服百合不错</t>
+          <t>宝贝喜欢，颜值高质量好，中看中用，需要朋友不要犹豫，最后祝商家生意兴隆</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>产品/不错/客服/百合/不错</t>
+          <t>宝贝/喜欢/颜值/高质量/看中/需要/朋友/不要/犹豫/最后/商家/生意兴隆</t>
         </is>
       </c>
       <c r="E584" t="n">
-        <v>0.4457960761015922</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>x**8</t>
+          <t>天**爱</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>宝贝特别喜欢，颜值高质量好，中看又中用，有需要的朋友不要犹豫了，最后祝商家生意兴隆！</t>
+          <t>这个超棒的使用也很方便，五星好评了，客服态度非常的好</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>宝贝喜欢，颜值高质量好，中看中用，需要朋友不要犹豫，最后祝商家生意兴隆</t>
+          <t>超棒使用方便，五星好评，客服态度好</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>宝贝/喜欢/颜值/高质量/看中/需要/朋友/不要/犹豫/最后/商家/生意兴隆</t>
+          <t>超棒/使用方便/五星/好评/客服/态度</t>
         </is>
       </c>
       <c r="E585" t="n">
-        <v>0.9920982789889448</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>天**爱</t>
+          <t>逍**9</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>这个超棒的使用也很方便，五星好评了，客服态度非常的好</t>
+          <t>产品真的超级棒，下次还会买的，愿越做越好，非常好的购物体验</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>超棒使用方便，五星好评，客服态度好</t>
+          <t>产品真的超级棒，下次还会买，愿越做越好，好购物体验</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>超棒/使用方便/五星/好评/客服/态度</t>
+          <t>产品/真的/超级/下次/还会/越做越/购物/体验</t>
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-0.5528116846959488</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>逍**9</t>
+          <t>l**5</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>产品真的超级棒，下次还会买的，愿越做越好，非常好的购物体验</t>
+          <t>东西不错，樱花客服挺好</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>产品真的超级棒，下次还会买，愿越做越好，好购物体验</t>
+          <t>东西不错，樱花客服好</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>产品/真的/超级/下次/还会/越做越/购物/体验</t>
+          <t>东西/不错/樱花/客服</t>
         </is>
       </c>
       <c r="E587" t="n">
-        <v>0.925814814296408</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>l**5</t>
+          <t>t**2</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>东西不错，樱花客服挺好</t>
+          <t>太好了</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>东西不错，樱花客服好</t>
+          <t>太好了</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>东西/不错/樱花/客服</t>
+          <t>太好了</t>
         </is>
       </c>
       <c r="E588" t="n">
-        <v>0.15484004124324</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t**2</t>
+          <t>x**8</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>太好了</t>
+          <t>非常好用质量非常好，老人不用怕摔倒了</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>太好了</t>
+          <t>好用质量好，老人不用怕摔倒</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>太好了</t>
+          <t>好用/质量/老人/不用/摔倒</t>
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-0.0530447953095694</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>x**8</t>
+          <t>深**琛</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>非常好用质量非常好，老人不用怕摔倒了</t>
+          <t>给老人买的，特别满意，好评，大家放心入</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>好用质量好，老人不用怕摔倒</t>
+          <t>给老人买，满意，好评，放心入</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>好用/质量/老人/不用/摔倒</t>
+          <t>老人/满意/好评/放心</t>
         </is>
       </c>
       <c r="E590" t="n">
-        <v>0.4347315832385843</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>深**琛</t>
+          <t>y**1</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>给老人买的，特别满意，好评，大家放心入</t>
+          <t>给奶奶买的，之前住院了，现在慢慢在训练当中。。。客服苏叶表现不错。。</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>给老人买，满意，好评，放心入</t>
+          <t>给奶奶买，之前住院，现在慢慢在训练当中，客服苏叶表现不错</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>老人/满意/好评/放心</t>
+          <t>奶奶/之前/住院/现在/慢慢/训练/当中/客服/苏叶/表现/不错</t>
         </is>
       </c>
       <c r="E591" t="n">
-        <v>0.710317954989016</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>y**1</t>
+          <t>如**里</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>给奶奶买的，之前住院了，现在慢慢在训练当中。。。客服苏叶表现不错。。</t>
+          <t>助力行走，减轻负重，保护膝盖，逐渐康复</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>给奶奶买，之前住院，现在慢慢在训练当中，客服苏叶表现不错</t>
+          <t>助力行走，减轻负重，保护膝盖，逐渐康复</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>奶奶/之前/住院/现在/慢慢/训练/当中/客服/苏叶/表现/不错</t>
+          <t>助力/行走/减轻/负重/保护/膝盖/逐渐/康复</t>
         </is>
       </c>
       <c r="E592" t="n">
-        <v>0.9997600488897325</v>
+        <v>0.4990642567018924</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>如**里</t>
+          <t>无**8</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>助力行走，减轻负重，保护膝盖，逐渐康复</t>
+          <t>质量非常好，高低可以调节</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>助力行走，减轻负重，保护膝盖，逐渐康复</t>
+          <t>质量好，高低可以调节</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>助力/行走/减轻/负重/保护/膝盖/逐渐/康复</t>
+          <t>质量/高低/可以/调节</t>
         </is>
       </c>
       <c r="E593" t="n">
-        <v>0.9981285134037847</v>
+        <v>-0.2610908166282163</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>无**8</t>
+          <t>z**玉</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>质量非常好，高低可以调节</t>
+          <t>宝贝收到了，不错的质量， 很好用，客服半夏服务的也不错，以后需要还会光顾的</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>质量好，高低可以调节</t>
+          <t>宝贝收到，不错质量， 好用，客服半夏服务不错，以后需要还会光顾</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>质量/高低/可以/调节</t>
+          <t>宝贝/收到/不错/质量/好用/客服/半夏/服务/不错/以后/需要/还会/光顾</t>
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-0.5221816332564326</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>z**玉</t>
+          <t>精**哥</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>宝贝收到了，不错的质量， 很好用，客服半夏服务的也不错，以后需要还会光顾的</t>
+          <t>用料挺厚实，沉甸甸的，对得起这个价位，有需要的可以下手了！</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>宝贝收到，不错质量， 好用，客服半夏服务不错，以后需要还会光顾</t>
+          <t>用料厚实，沉甸甸，对得起价位，需要可以下手</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>宝贝/收到/不错/质量/好用/客服/半夏/服务/不错/以后/需要/还会/光顾</t>
+          <t>用料/厚实/沉甸甸/对得起/价位/需要/可以/下手</t>
         </is>
       </c>
       <c r="E595" t="n">
-        <v>0.8391560995336531</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>精**哥</t>
+          <t>t**3</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>用料挺厚实，沉甸甸的，对得起这个价位，有需要的可以下手了！</t>
+          <t>助行器质量好，百合客服负责任</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>用料厚实，沉甸甸，对得起价位，需要可以下手</t>
+          <t>助行器质量好，百合客服负责</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>用料/厚实/沉甸甸/对得起/价位/需要/可以/下手</t>
+          <t>助行器/质量/百合/客服/负责</t>
         </is>
       </c>
       <c r="E596" t="n">
-        <v>0.9681267771998436</v>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>t**3</t>
-        </is>
-      </c>
-      <c r="B597" t="inlineStr">
-        <is>
-          <t>助行器质量好，百合客服负责任</t>
-        </is>
-      </c>
-      <c r="C597" t="inlineStr">
-        <is>
-          <t>助行器质量好，百合客服负责</t>
-        </is>
-      </c>
-      <c r="D597" t="inlineStr">
-        <is>
-          <t>助行器/质量/百合/客服/负责</t>
-        </is>
-      </c>
-      <c r="E597" t="n">
-        <v>-0.9043629940107121</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
